--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104CD9F6-29BE-F544-9877-AA77993A5402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAD228-3CAE-1049-8043-F27189BE3C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41060" yWindow="2900" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="438">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1871,14 +1871,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2121,29 +2121,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="80" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="80" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="82"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3709,38 +3709,38 @@
       <c r="A58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="85" t="s">
+      <c r="B61" s="81"/>
+      <c r="C61" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="85" t="s">
+      <c r="A62" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="85" t="s">
+      <c r="B62" s="81"/>
+      <c r="C62" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4708,7 +4708,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4719,20 +4719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="26" t="s">
@@ -4791,7 +4791,9 @@
       <c r="B4" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D4" s="36" t="s">
         <v>220</v>
       </c>
@@ -4803,10 +4805,12 @@
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="33" t="str">
@@ -4816,7 +4820,9 @@
       <c r="B5" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D5" s="36" t="s">
         <v>220</v>
       </c>
@@ -4828,10 +4834,12 @@
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="33" t="str">
@@ -4906,22 +4914,28 @@
       <c r="B9" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D9" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>220</v>
+      <c r="E9" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>220</v>
       </c>
       <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="33" t="str">
@@ -4948,7 +4962,9 @@
       <c r="B11" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D11" s="36" t="s">
         <v>220</v>
       </c>
@@ -4960,8 +4976,8 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="36" t="s">
-        <v>220</v>
+      <c r="I11" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>437</v>
@@ -4975,7 +4991,9 @@
       <c r="B12" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D12" s="36" t="s">
         <v>220</v>
       </c>
@@ -4987,10 +5005,12 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="33" t="str">
@@ -5066,22 +5086,26 @@
       <c r="B15" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D15" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>220</v>
+      <c r="E15" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>220</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="33" t="str">
@@ -5230,7 +5254,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
@@ -6591,6 +6615,7 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7869,6 +7894,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8886,6 +8912,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9788,5 +9815,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAD228-3CAE-1049-8043-F27189BE3C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675615E3-0094-6E4D-A49A-E4DDE35AE7B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41060" yWindow="2900" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45320" yWindow="1840" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
     <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId2"/>
-    <sheet name="Parts at SRI" sheetId="3" r:id="rId3"/>
-    <sheet name="Parts at Minex" sheetId="4" r:id="rId4"/>
-    <sheet name="Parts at SSL" sheetId="5" r:id="rId5"/>
-    <sheet name="PAX Boxes" sheetId="6" r:id="rId6"/>
+    <sheet name="Vibration Measurements" sheetId="7" r:id="rId3"/>
+    <sheet name="Parts at SRI" sheetId="3" r:id="rId4"/>
+    <sheet name="Parts at Minex" sheetId="4" r:id="rId5"/>
+    <sheet name="Parts at SSL" sheetId="5" r:id="rId6"/>
+    <sheet name="PAX Boxes" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="xx_1" localSheetId="0">'Parts At ATA'!$A$2:$G$44</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="462">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1362,13 +1363,85 @@
   </si>
   <si>
     <t>Needs X-Pol LNA replacement</t>
+  </si>
+  <si>
+    <t>5C4-003</t>
+  </si>
+  <si>
+    <t>5C4-004</t>
+  </si>
+  <si>
+    <t>5C4-005</t>
+  </si>
+  <si>
+    <t>5C4-006</t>
+  </si>
+  <si>
+    <t>5C4-008</t>
+  </si>
+  <si>
+    <t>5C4-009</t>
+  </si>
+  <si>
+    <t>5C4-010</t>
+  </si>
+  <si>
+    <t>5C4-011</t>
+  </si>
+  <si>
+    <t>5C4-012</t>
+  </si>
+  <si>
+    <t>5C4-013</t>
+  </si>
+  <si>
+    <t>5C4-014</t>
+  </si>
+  <si>
+    <t>5C4-019</t>
+  </si>
+  <si>
+    <t>5C4-020</t>
+  </si>
+  <si>
+    <t>Vibration Measurements</t>
+  </si>
+  <si>
+    <t>Initial, before tuning</t>
+  </si>
+  <si>
+    <t>Tuned Value</t>
+  </si>
+  <si>
+    <t>Followup measurement</t>
+  </si>
+  <si>
+    <t>X=0.32 Y=0.09 Z=0.14</t>
+  </si>
+  <si>
+    <t>X=0.12 Y=0.06 Z=0.22</t>
+  </si>
+  <si>
+    <t>X=0.15 Y=0.13 Z=0.10</t>
+  </si>
+  <si>
+    <t>X=0.237 Y=0.053 Z=0.185</t>
+  </si>
+  <si>
+    <t>X=0.070 Y=0.051 Z=0.163</t>
+  </si>
+  <si>
+    <t>X=0.19 Y=0.05 Z=0.18</t>
+  </si>
+  <si>
+    <t>X=0.09 Y=0.04 Z=0.16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1379,102 +1452,120 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1485,6 +1576,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1543,7 +1642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1726,11 +1825,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1779,7 +1905,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1871,6 +1996,35 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,8 +2033,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2121,29 +2285,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="82" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="84"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3709,38 +3873,38 @@
       <c r="A58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="101" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="80" t="s">
+      <c r="B61" s="97"/>
+      <c r="C61" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="81"/>
-      <c r="C62" s="80" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4708,7 +4872,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4719,20 +4883,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="26" t="s">
@@ -4771,479 +4935,487 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33" t="str">
+      <c r="A4" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>220</v>
+      <c r="C4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33" t="str">
+      <c r="A5" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="36" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33" t="str">
+      <c r="A6" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="33" t="str">
+      <c r="A7" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="39" t="s">
+      <c r="C7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="33" t="str">
+      <c r="A9" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="33" t="str">
+      <c r="A10" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="B10" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="33" t="str">
+      <c r="A11" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="42" t="s">
+      <c r="D11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="41" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="33" t="str">
+      <c r="A12" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="33" t="str">
+      <c r="A13" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="44" t="s">
+      <c r="C13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="43" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="33" t="str">
+      <c r="A14" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="39" t="s">
+      <c r="C14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="33" t="str">
+      <c r="A15" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33" t="str">
+      <c r="A16" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="B17" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33" t="str">
+      <c r="A18" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="47" t="s">
+      <c r="C19" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="46" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="33" t="str">
+      <c r="A20" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="33" t="str">
+      <c r="A21" s="32" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="39" t="s">
+      <c r="C21" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5259,6 +5431,404 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="10" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1">
+      <c r="A1" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="102" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="103"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1">
+      <c r="A2" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="79" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="88" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="88" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{AC099EE2-C40F-5F40-BFC4-D28CF0E212B9}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N" xr:uid="{CB7AB86E-FFBE-7E4A-82E1-CC14BF759436}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0" xr:uid="{642CC74B-31EB-9748-B04F-89D87D553A78}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh" xr:uid="{FA19B2EA-FC14-1447-9484-9265A6EF6E34}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW" xr:uid="{743D593C-B886-ED4A-8D82-2F0E9BAAB577}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C" xr:uid="{108EBF60-AB29-434D-B9C3-D4DF185E8276}"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af" xr:uid="{6C139406-4D22-8A40-860A-1A248F5F836F}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc" xr:uid="{31C0712B-F59D-CD4A-BF2B-A245136B70F0}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn" xr:uid="{C1708996-A2C1-3843-BF9B-A16A1B061E32}"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4" xr:uid="{D20F0DD2-BB68-7344-A1AA-3E6D1F52E396}"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u" xr:uid="{82E08500-41FF-A146-AAE0-9299A05597D6}"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h" xr:uid="{D60C6513-CFA6-0B49-9837-37AA9AB191B0}"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm" xr:uid="{5F5AAEB7-6B6C-7849-A9BE-EDE531593389}"/>
+    <hyperlink ref="A18" r:id="rId14" display="https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u" xr:uid="{C6117B22-7B0A-4D4F-AED4-7357491A8078}"/>
+    <hyperlink ref="A20" r:id="rId15" display="https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW" xr:uid="{76539FEA-D20F-504F-803D-6634EE2BA126}"/>
+    <hyperlink ref="A21" r:id="rId16" display="https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr" xr:uid="{4C921AD2-E69C-7C40-B1A1-DDA3F76C36D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5279,16 +5849,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>240</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -5296,299 +5866,299 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="17" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="57" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="61"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="64" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="50"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="54" t="s">
         <v>288</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -5596,7 +6166,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
         <v>290</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -5604,7 +6174,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>291</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -5612,7 +6182,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="54" t="s">
         <v>292</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -5620,7 +6190,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="54" t="s">
         <v>293</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -5628,7 +6198,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="54" t="s">
         <v>294</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -5636,7 +6206,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>295</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -6619,7 +7189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6640,10 +7210,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6692,7 +7262,7 @@
       <c r="A9" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6794,7 +7364,7 @@
       <c r="A25" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -6805,7 +7375,7 @@
       <c r="A26" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>329</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -6817,7 +7387,7 @@
       <c r="A28" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="70" t="s">
         <v>331</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -6828,7 +7398,7 @@
       <c r="A29" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="70" t="s">
         <v>332</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -6840,7 +7410,7 @@
       <c r="A31" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="70" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6848,7 +7418,7 @@
       <c r="A32" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6857,7 +7427,7 @@
       <c r="A34" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>337</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -6868,7 +7438,7 @@
       <c r="A35" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="70" t="s">
         <v>339</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -6880,7 +7450,7 @@
       <c r="A37" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="70" t="s">
         <v>341</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -6891,7 +7461,7 @@
       <c r="A38" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="70" t="s">
         <v>342</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -6903,7 +7473,7 @@
       <c r="A40" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="70" t="s">
         <v>344</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -6914,7 +7484,7 @@
       <c r="A41" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>345</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -7898,7 +8468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7923,7 +8493,7 @@
     </row>
     <row r="2" spans="1:2" ht="16">
       <c r="A2" s="17"/>
-      <c r="B2" s="70"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="8" t="s">
@@ -8916,7 +9486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8935,883 +9505,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="71" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="74"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="71" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="71" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="71" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="71" t="s">
         <v>394</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="71" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="71" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="71" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="71" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="71" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="74"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="71" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="71" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="71" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="71" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="71" t="s">
         <v>416</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="71" t="s">
         <v>416</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="71" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="72" t="s">
+      <c r="E33" s="77"/>
+      <c r="F33" s="71" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="74"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="71" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="71" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>424</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F38" s="72" t="s">
+      <c r="F38" s="71" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="71" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="71" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="74"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="71" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="71" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="71" t="s">
         <v>432</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="75"/>
+      <c r="F43" s="74"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F44" s="75"/>
+      <c r="F44" s="74"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="71" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="71" t="s">
         <v>436</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F46" s="72" t="s">
+      <c r="F46" s="71" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="79"/>
+      <c r="A47" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675615E3-0094-6E4D-A49A-E4DDE35AE7B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04C1735-CAAB-DA41-B44B-49B26D451DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45320" yWindow="1840" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="467">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1435,6 +1435,21 @@
   </si>
   <si>
     <t>X=0.09 Y=0.04 Z=0.16</t>
+  </si>
+  <si>
+    <t>X=0.09 Y=0.07 Z=0.260</t>
+  </si>
+  <si>
+    <t>X=0.07 Y=0.04 Z=0.158</t>
+  </si>
+  <si>
+    <t>Inner Feed / LNAs</t>
+  </si>
+  <si>
+    <t>(002) 62 / 55</t>
+  </si>
+  <si>
+    <t>(---) 83 / 84</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1601,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,8 +1656,14 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1851,19 +1872,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1871,9 +1898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1889,9 +1913,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2040,6 +2061,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2260,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2285,29 +2322,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="100"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -2337,1574 +2372,1515 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17" ht="16">
-      <c r="A3" s="7" t="str">
+      <c r="A3" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
     </row>
     <row r="4" spans="1:17" ht="16">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
     </row>
     <row r="5" spans="1:17" ht="16">
-      <c r="A5" s="15" t="str">
+      <c r="A5" s="11" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
     </row>
     <row r="6" spans="1:17" ht="16">
-      <c r="A6" s="15" t="str">
+      <c r="A6" s="11" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
     </row>
     <row r="7" spans="1:17" ht="16">
-      <c r="A7" s="15" t="str">
+      <c r="A7" s="11" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
     </row>
     <row r="8" spans="1:17" ht="16">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="11" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
     </row>
     <row r="9" spans="1:17" ht="16">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="16">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
     </row>
     <row r="11" spans="1:17" ht="16">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
     </row>
     <row r="12" spans="1:17" ht="16">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
     </row>
     <row r="13" spans="1:17" ht="16">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="21" t="str">
+      <c r="D13" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="20" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
     </row>
     <row r="14" spans="1:17" ht="16">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
-        <v>5C4-010</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="16" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
+        <v>5C4-004</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="20" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
     </row>
     <row r="15" spans="1:17" ht="16">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
     </row>
     <row r="16" spans="1:17" ht="16">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
     </row>
     <row r="17" spans="1:17" ht="16">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
-        <v>5C4-004</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="20" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="1:17" ht="16">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
     </row>
     <row r="19" spans="1:17" ht="16">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
     </row>
     <row r="20" spans="1:17" ht="16">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
     </row>
     <row r="21" spans="1:17" ht="16">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="21" t="str">
+      <c r="D21" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="20" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="14"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="str">
+      <c r="A26" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="str">
+      <c r="A27" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="str">
+      <c r="A28" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="str">
+      <c r="A29" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="str">
+      <c r="A30" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="str">
+      <c r="A32" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="21" t="str">
+      <c r="D32" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="20" t="s">
+      <c r="I32" s="8"/>
+      <c r="J32" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="14"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="str">
+      <c r="A33" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="str">
+      <c r="A34" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="str">
+      <c r="A35" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="14"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="str">
+      <c r="A37" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="21" t="str">
+      <c r="D37" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="14"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="14"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="14"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="21" t="str">
+      <c r="D40" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="20" t="s">
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="14"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A41" s="7" t="str">
+      <c r="A41" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="14"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A42" s="7" t="str">
+      <c r="A42" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="14"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A43" s="7" t="str">
+      <c r="A43" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="14"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A44" s="7" t="str">
+      <c r="A44" s="4" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="14"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="14"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="13" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="18" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="13"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="17"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="96" t="s">
+      <c r="B61" s="92"/>
+      <c r="C61" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="96" t="s">
+      <c r="B62" s="92"/>
+      <c r="C62" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -3913,7 +3889,7 @@
     <row r="67" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="68" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="69" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="18"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="71" spans="1:1" ht="15.75" customHeight="1"/>
@@ -4869,10 +4845,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4880,549 +4856,579 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="26" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1">
+      <c r="A2" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="23" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="29" t="str">
+      <c r="K2" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="24" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="32" t="str">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="32" t="str">
+      <c r="J4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="106"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38" t="s">
+      <c r="B5" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="32" t="str">
+      <c r="D5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="106" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="32" t="str">
+      <c r="C6" s="29"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="106"/>
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="39" t="s">
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="32" t="str">
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="30" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="32" t="str">
+      <c r="K9" s="106"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="32" t="str">
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="106"/>
+    </row>
+    <row r="11" spans="1:11" ht="16">
+      <c r="A11" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="36" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="32" t="str">
+      <c r="K11" s="106"/>
+    </row>
+    <row r="12" spans="1:11" ht="16">
+      <c r="A12" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="30" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="32" t="str">
+      <c r="K12" s="106"/>
+    </row>
+    <row r="13" spans="1:11" ht="16">
+      <c r="A13" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="38" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="32" t="str">
+      <c r="K13" s="106"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="32" t="str">
+      <c r="K14" s="106"/>
+    </row>
+    <row r="15" spans="1:11" ht="16">
+      <c r="A15" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="30" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="32" t="str">
+      <c r="K15" s="106"/>
+    </row>
+    <row r="16" spans="1:11" ht="16">
+      <c r="A16" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="44" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="106"/>
+    </row>
+    <row r="17" spans="1:11" ht="16">
+      <c r="A17" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="32" t="str">
+      <c r="C17" s="29"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="106"/>
+    </row>
+    <row r="18" spans="1:11" ht="16">
+      <c r="A18" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="45" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="106"/>
+    </row>
+    <row r="19" spans="1:11" ht="16">
+      <c r="A19" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="41" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="32" t="str">
+      <c r="K19" s="106"/>
+    </row>
+    <row r="20" spans="1:11" ht="16">
+      <c r="A20" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="38" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="32" t="str">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="106"/>
+    </row>
+    <row r="21" spans="1:11" ht="16">
+      <c r="A21" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="33" t="s">
         <v>35</v>
+      </c>
+      <c r="K21" s="106" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5435,7 +5441,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5445,360 +5451,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="102" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="85" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="88"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="83" t="s">
         <v>456</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="74" t="s">
         <v>448</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="74" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5849,367 +5859,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="13" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="54"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="51" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="51" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="46" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="49" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="52" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="54" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="61"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="59" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="61"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="48" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="48" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="45" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="45" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7205,307 +7215,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="63" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="64" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="20" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="20" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="65" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="65" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="20" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8484,19 +8494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="17"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9505,883 +9515,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="66" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="66" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="66" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="66" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="66" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="66" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="66" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="66" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="69"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="66" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="66" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="66" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="66" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="66" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="66" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="66" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="66" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="66" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="66" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="66" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="66" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="66" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="66" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="71" t="s">
+      <c r="E33" s="72"/>
+      <c r="F33" s="66" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F34" s="74"/>
+      <c r="F34" s="69"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="66" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="66" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="66" t="s">
         <v>425</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="66" t="s">
         <v>425</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="66" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="66" t="s">
         <v>427</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="66" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F40" s="74"/>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="66" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="F42" s="71" t="s">
+      <c r="F42" s="66" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="69"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="66" t="s">
         <v>433</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F44" s="74"/>
+      <c r="F44" s="69"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="66" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="66" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="78"/>
+      <c r="A47" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04C1735-CAAB-DA41-B44B-49B26D451DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E10A7-8C1B-F04D-AA2A-657672C60CD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44600" yWindow="4180" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="470">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -619,9 +619,6 @@
     <t>RFCB-019</t>
   </si>
   <si>
-    <t>CB-0022</t>
-  </si>
-  <si>
     <t>DB-028</t>
   </si>
   <si>
@@ -1450,6 +1447,18 @@
   </si>
   <si>
     <t>(---) 83 / 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed Lab </t>
+  </si>
+  <si>
+    <t>Feed Lab (2A)</t>
+  </si>
+  <si>
+    <t>X=0.120 Y=0.04 Z=0.220</t>
+  </si>
+  <si>
+    <t>X=0.08 Y=0.03 Z=0.150</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1610,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1658,8 +1667,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1886,7 +1901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1965,7 +1980,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2025,7 +2039,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,6 +2059,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2053,7 +2078,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2063,22 +2095,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2297,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2322,20 +2339,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="93" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
       <c r="K1" s="102"/>
       <c r="L1" s="103"/>
       <c r="M1" s="103"/>
@@ -2375,13 +2392,13 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="1:17" ht="16">
       <c r="A3" s="4" t="str">
@@ -2405,14 +2422,14 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17" ht="16">
       <c r="A4" s="4" t="str">
@@ -2436,14 +2453,14 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17" ht="16">
       <c r="A5" s="11" t="str">
@@ -2475,16 +2492,16 @@
       <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:17" ht="16">
       <c r="A6" s="11" t="str">
@@ -2508,14 +2525,14 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
     </row>
     <row r="7" spans="1:17" ht="16">
       <c r="A7" s="11" t="str">
@@ -2541,14 +2558,14 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
     </row>
     <row r="8" spans="1:17" ht="16">
       <c r="A8" s="11" t="str">
@@ -2572,14 +2589,14 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:17" ht="16">
       <c r="A9" s="4" t="str">
@@ -2607,14 +2624,14 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
     </row>
     <row r="10" spans="1:17" ht="16">
       <c r="A10" s="4" t="str">
@@ -2639,14 +2656,14 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
     </row>
     <row r="11" spans="1:17" ht="16">
       <c r="A11" s="4" t="str">
@@ -2673,14 +2690,14 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
     </row>
     <row r="12" spans="1:17" ht="16">
       <c r="A12" s="4" t="str">
@@ -2705,14 +2722,14 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
     </row>
     <row r="13" spans="1:17" ht="16">
       <c r="A13" s="4" t="str">
@@ -2737,16 +2754,16 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
     </row>
     <row r="14" spans="1:17" ht="16">
       <c r="A14" s="4" t="str">
@@ -2771,16 +2788,16 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="101" t="s">
+      <c r="J14" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
     </row>
     <row r="15" spans="1:17" ht="16">
       <c r="A15" s="4" t="str">
@@ -2804,14 +2821,14 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
     </row>
     <row r="16" spans="1:17" ht="16">
       <c r="A16" s="4" t="str">
@@ -2835,14 +2852,14 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
     </row>
     <row r="17" spans="1:17" ht="16">
       <c r="A17" s="4" t="str">
@@ -2866,16 +2883,16 @@
         <v>35</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="101" t="s">
+      <c r="J17" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
     </row>
     <row r="18" spans="1:17" ht="16">
       <c r="A18" s="4" t="str">
@@ -2899,14 +2916,14 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
     </row>
     <row r="19" spans="1:17" ht="16">
       <c r="A19" s="4" t="str">
@@ -2933,14 +2950,14 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="1:17" ht="16">
       <c r="A20" s="4" t="str">
@@ -2968,16 +2985,16 @@
       <c r="I20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="101" t="s">
+      <c r="J20" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
     </row>
     <row r="21" spans="1:17" ht="16">
       <c r="A21" s="4" t="str">
@@ -3002,16 +3019,16 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="101" t="s">
+      <c r="J21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="str">
@@ -3035,14 +3052,14 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="str">
@@ -3066,14 +3083,14 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="str">
@@ -3099,14 +3116,14 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="str">
@@ -3135,14 +3152,14 @@
       <c r="I25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="str">
@@ -3170,14 +3187,14 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="str">
@@ -3201,14 +3218,14 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="str">
@@ -3235,14 +3252,14 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="str">
@@ -3269,14 +3286,14 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="str">
@@ -3303,14 +3320,14 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="str">
@@ -3334,14 +3351,14 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="str">
@@ -3368,16 +3385,16 @@
         <v>35</v>
       </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="101" t="s">
+      <c r="J32" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="str">
@@ -3404,14 +3421,14 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="str">
@@ -3438,14 +3455,14 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="str">
@@ -3469,14 +3486,14 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="str">
@@ -3503,14 +3520,14 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="str">
@@ -3539,16 +3556,16 @@
       <c r="I37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="101" t="s">
+      <c r="J37" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="str">
@@ -3572,14 +3589,14 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="str">
@@ -3603,14 +3620,14 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="str">
@@ -3635,16 +3652,16 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="str">
@@ -3668,14 +3685,14 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="str">
@@ -3699,14 +3716,14 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="str">
@@ -3730,14 +3747,14 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="str">
@@ -3745,30 +3762,30 @@
         <v>5H</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
       <c r="K45" s="9"/>
@@ -3782,33 +3799,33 @@
     <row r="46" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:17" ht="15.75" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -3817,70 +3834,70 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
+      <c r="A59" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="91" t="s">
+      <c r="A61" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="98"/>
+      <c r="C61" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="91" t="s">
+      <c r="B62" s="98"/>
+      <c r="C62" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4847,8 +4864,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4860,11 +4877,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="107" t="s">
+      <c r="A1" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="105" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="102"/>
@@ -4874,14 +4891,14 @@
       <c r="H1" s="102"/>
       <c r="I1" s="102"/>
       <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
       <c r="A2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>216</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>13</v>
@@ -4905,10 +4922,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
@@ -4917,7 +4934,7 @@
         <v>5C4-002</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
@@ -4935,37 +4952,35 @@
         <v>5C4-003</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="106"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="16">
       <c r="A5" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="100" t="s">
-        <v>227</v>
+      <c r="B5" s="93" t="s">
+        <v>367</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
@@ -4991,8 +5006,8 @@
       <c r="J5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="106" t="s">
-        <v>465</v>
+      <c r="K5" s="92" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16">
@@ -5001,7 +5016,7 @@
         <v>5C4-005</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="31"/>
@@ -5011,7 +5026,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="106"/>
+      <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11" ht="16">
       <c r="A7" s="27" t="str">
@@ -5019,7 +5034,7 @@
         <v>5C4-006</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
@@ -5045,14 +5060,14 @@
       <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="106"/>
+      <c r="K7" s="92"/>
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>225</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="31"/>
@@ -5061,7 +5076,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="106"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="16">
       <c r="A9" s="27" t="str">
@@ -5069,10 +5084,10 @@
         <v>5C4-008</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>35</v>
@@ -5093,9 +5108,9 @@
         <v>35</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="K9" s="106"/>
+        <v>219</v>
+      </c>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="16">
       <c r="A10" s="27" t="str">
@@ -5103,17 +5118,23 @@
         <v>5C4-009</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="106"/>
+      <c r="K10" s="92"/>
     </row>
     <row r="11" spans="1:11" ht="16">
       <c r="A11" s="27" t="str">
@@ -5121,10 +5142,10 @@
         <v>5C4-010</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>227</v>
+        <v>466</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>35</v>
@@ -5135,15 +5156,19 @@
       <c r="F11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="K11" s="106"/>
+        <v>436</v>
+      </c>
+      <c r="K11" s="92"/>
     </row>
     <row r="12" spans="1:11" ht="16">
       <c r="A12" s="27" t="str">
@@ -5151,10 +5176,10 @@
         <v>5C4-011</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>35</v>
@@ -5175,9 +5200,9 @@
         <v>35</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="106"/>
+        <v>219</v>
+      </c>
+      <c r="K12" s="92"/>
     </row>
     <row r="13" spans="1:11" ht="16">
       <c r="A13" s="27" t="str">
@@ -5185,7 +5210,7 @@
         <v>5C4-012</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>35</v>
@@ -5209,9 +5234,9 @@
         <v>35</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="106"/>
+        <v>229</v>
+      </c>
+      <c r="K13" s="92"/>
     </row>
     <row r="14" spans="1:11" ht="16">
       <c r="A14" s="27" t="str">
@@ -5219,7 +5244,7 @@
         <v>5C4-013</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>231</v>
+        <v>428</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
@@ -5245,7 +5270,7 @@
       <c r="J14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="106"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="16">
       <c r="A15" s="27" t="str">
@@ -5253,10 +5278,10 @@
         <v>5C4-014</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>35</v>
@@ -5267,50 +5292,66 @@
       <c r="F15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="I15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="K15" s="106"/>
+        <v>219</v>
+      </c>
+      <c r="K15" s="92"/>
     </row>
     <row r="16" spans="1:11" ht="16">
       <c r="A16" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>226</v>
+      <c r="B16" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="106"/>
+      <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:11" ht="16">
       <c r="A17" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="106"/>
+      <c r="K17" s="92"/>
     </row>
     <row r="18" spans="1:11" ht="16">
       <c r="A18" s="27" t="str">
@@ -5318,24 +5359,30 @@
         <v>5C4-017</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="106"/>
+      <c r="K18" s="92"/>
     </row>
     <row r="19" spans="1:11" ht="16">
       <c r="A19" s="40" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>35</v>
@@ -5359,9 +5406,9 @@
         <v>35</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="K19" s="106"/>
+        <v>229</v>
+      </c>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:11" ht="16">
       <c r="A20" s="27" t="str">
@@ -5369,7 +5416,7 @@
         <v>5C4-019</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="33" t="s">
@@ -5387,15 +5434,15 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="106"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:11" ht="16">
       <c r="A21" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>236</v>
+      <c r="B21" s="94" t="s">
+        <v>235</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>35</v>
@@ -5421,14 +5468,14 @@
       <c r="J21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="106" t="s">
-        <v>466</v>
+      <c r="K21" s="92" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5441,7 +5488,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5451,364 +5498,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="107"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1">
+      <c r="A2" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="97" t="s">
+      <c r="B2" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="98"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1">
-      <c r="A2" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="88" t="s">
+      <c r="D2" s="86" t="s">
         <v>452</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="E2" s="86" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="73" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>469</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="73" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="74" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="83" t="s">
-        <v>457</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="B9" s="75" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="73" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>461</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="83"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="74" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="83" t="s">
-        <v>455</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="83" t="s">
-        <v>456</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="74" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="74" t="s">
+      <c r="C20" s="85"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B21" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5859,368 +5910,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="43" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="44" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="45" t="s">
+      <c r="B4" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="51" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="45" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="46" t="s">
+      <c r="B12" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="46" t="s">
+      <c r="E12" s="50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" outlineLevel="1">
+      <c r="A13" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" outlineLevel="1">
-      <c r="A13" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="46" t="s">
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="46" t="s">
+      <c r="B16" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="E16" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="52" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="D17" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="E17" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="54" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="B18" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="D19" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="E19" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="59" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="60" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="56"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="61" t="s">
+      <c r="B21" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="48" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="60" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="B22" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="45"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="B24" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="51" t="s">
+      <c r="B25" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="B26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="48" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="49" t="s">
+      <c r="B27" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="49" t="s">
+      <c r="B28" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="49" t="s">
+      <c r="B29" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="B30" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="49" t="s">
+      <c r="B31" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="49" t="s">
-        <v>295</v>
-      </c>
       <c r="B32" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -7216,36 +7267,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="62" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>297</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="A4" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
@@ -7254,269 +7305,269 @@
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>233</v>
+        <v>306</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="C25" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="65" t="s">
-        <v>331</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>331</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>333</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="C34" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>338</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="65" t="s">
-        <v>341</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>341</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="B40" s="65" t="s">
-        <v>344</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>344</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
@@ -8495,19 +8546,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
       <c r="A2" s="13"/>
-      <c r="B2" s="64"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9515,883 +9566,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="66" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="66" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="C4" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="F4" s="65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="E5" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="66" t="s">
+      <c r="F5" s="68"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C6" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="E13" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="69"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="F23" s="65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="69"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="66" t="s">
+      <c r="F27" s="68"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" s="68"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F40" s="68"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="66" t="s">
+      <c r="C41" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" s="69"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="E41" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="68"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="66" t="s">
+      <c r="D44" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E44" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F9" s="69"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="66" t="s">
+      <c r="F44" s="68"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E11" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="66" t="s">
+      <c r="F45" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E46" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>384</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="F13" s="68"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F15" s="69"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="66" t="s">
+      <c r="F46" s="65" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" s="69"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F30" s="66" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D31" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F32" s="66" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="66" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="66" t="s">
-        <v>420</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F34" s="69"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E35" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F36" s="66" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="70" t="s">
-        <v>424</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F38" s="66" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E39" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F39" s="66" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F40" s="69"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="F42" s="66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="69"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="66" t="s">
-        <v>433</v>
-      </c>
-      <c r="B44" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E44" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F44" s="69"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="66" t="s">
-        <v>434</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E45" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F45" s="66" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F46" s="66" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="73"/>
+      <c r="A47" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E10A7-8C1B-F04D-AA2A-657672C60CD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235040C-19C9-534D-9819-9A16F42C62A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44600" yWindow="4180" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="471">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1452,13 +1452,16 @@
     <t xml:space="preserve">Feed Lab </t>
   </si>
   <si>
-    <t>Feed Lab (2A)</t>
-  </si>
-  <si>
     <t>X=0.120 Y=0.04 Z=0.220</t>
   </si>
   <si>
     <t>X=0.08 Y=0.03 Z=0.150</t>
+  </si>
+  <si>
+    <t>X=0.370 Y=0.08 Z=0.190</t>
+  </si>
+  <si>
+    <t>X=0.07 Y=0.03 Z=0.150</t>
   </si>
 </sst>
 </file>
@@ -2071,6 +2074,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2095,7 +2099,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2339,27 +2342,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="99" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3866,38 +3869,38 @@
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="99"/>
+      <c r="C61" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="99"/>
+      <c r="C62" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4865,7 +4868,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4877,21 +4880,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="109"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -5292,11 +5295,11 @@
       <c r="F15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>219</v>
+      <c r="G15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>35</v>
@@ -5418,7 +5421,7 @@
       <c r="B20" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="33" t="s">
         <v>35</v>
       </c>
@@ -5431,9 +5434,9 @@
       <c r="G20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:11" ht="16">
@@ -5488,7 +5491,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5498,20 +5501,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="107" t="s">
         <v>450</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="107"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="86" t="s">
@@ -5556,7 +5559,7 @@
         <v>437</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>467</v>
+        <v>221</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>461</v>
@@ -5681,10 +5684,10 @@
         <v>226</v>
       </c>
       <c r="C11" s="83" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" s="81" t="s">
         <v>468</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>469</v>
       </c>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
@@ -5756,8 +5759,12 @@
       <c r="B15" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>470</v>
+      </c>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235040C-19C9-534D-9819-9A16F42C62A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052DD102-6D3A-154C-87BC-582FD2A23689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48340" yWindow="4400" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId2"/>
-    <sheet name="Vibration Measurements" sheetId="7" r:id="rId3"/>
-    <sheet name="Parts at SRI" sheetId="3" r:id="rId4"/>
-    <sheet name="Parts at Minex" sheetId="4" r:id="rId5"/>
-    <sheet name="Parts at SSL" sheetId="5" r:id="rId6"/>
-    <sheet name="PAX Boxes" sheetId="6" r:id="rId7"/>
+    <sheet name="Feed Retrofit Overview Dates" sheetId="8" r:id="rId2"/>
+    <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId3"/>
+    <sheet name="Vibration Measurements" sheetId="7" r:id="rId4"/>
+    <sheet name="Parts at SRI" sheetId="3" r:id="rId5"/>
+    <sheet name="Parts at Minex" sheetId="4" r:id="rId6"/>
+    <sheet name="Parts at SSL" sheetId="5" r:id="rId7"/>
+    <sheet name="PAX Boxes" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="xx_1" localSheetId="0">'Parts At ATA'!$A$2:$G$44</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="475">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -706,9 +707,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Feed Lab (2E)</t>
-  </si>
-  <si>
     <t>2A</t>
   </si>
   <si>
@@ -1462,6 +1460,21 @@
   </si>
   <si>
     <t>X=0.07 Y=0.03 Z=0.150</t>
+  </si>
+  <si>
+    <t>X=0.20 Y=0.07 Z=0.200</t>
+  </si>
+  <si>
+    <t>X=0.05 Y=0.05 Z=0.12</t>
+  </si>
+  <si>
+    <t>01/22/2021</t>
+  </si>
+  <si>
+    <t>MINEX</t>
+  </si>
+  <si>
+    <t>ETA on Antenna</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1626,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1678,6 +1691,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1904,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2077,6 +2102,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,6 +2124,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2342,27 +2379,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="100" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3765,7 +3802,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>191</v>
@@ -3869,38 +3906,38 @@
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="105" t="s">
+      <c r="A59" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="98" t="s">
+      <c r="A61" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="98" t="s">
+      <c r="B61" s="101"/>
+      <c r="C61" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="98" t="s">
+      <c r="B62" s="101"/>
+      <c r="C62" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4860,6 +4897,643 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F153158-615D-8949-B96E-A7AB2B969FBA}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" style="99"/>
+    <col min="2" max="2" width="13.5" style="99" customWidth="1"/>
+    <col min="3" max="9" width="18" style="99" customWidth="1"/>
+    <col min="10" max="10" width="28" style="99" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="99" customWidth="1"/>
+    <col min="12" max="16384" width="11.1640625" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="114" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="24" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
+        <v>5C4-002</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
+        <v>5C4-003</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="K4" s="92"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
+        <v>5C4-004</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="92"/>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
+        <v>5C4-005</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="92"/>
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
+        <v>5C4-006</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
+        <v>5C4-008</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="K9" s="115">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
+        <v>5C4-009</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="92"/>
+    </row>
+    <row r="11" spans="1:11" ht="16">
+      <c r="A11" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
+        <v>5C4-010</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="K11" s="115">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16">
+      <c r="A12" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
+        <v>5C4-011</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="K12" s="92"/>
+    </row>
+    <row r="13" spans="1:11" ht="16">
+      <c r="A13" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
+        <v>5C4-012</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
+        <v>5C4-013</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="92"/>
+    </row>
+    <row r="15" spans="1:11" ht="16">
+      <c r="A15" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
+        <v>5C4-014</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="K15" s="92"/>
+    </row>
+    <row r="16" spans="1:11" ht="16">
+      <c r="A16" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
+        <v>5C4-015</v>
+      </c>
+      <c r="B16" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="92"/>
+    </row>
+    <row r="17" spans="1:11" ht="16">
+      <c r="A17" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="92"/>
+    </row>
+    <row r="18" spans="1:11" ht="16">
+      <c r="A18" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
+        <v>5C4-017</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="92"/>
+    </row>
+    <row r="19" spans="1:11" ht="16">
+      <c r="A19" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="92"/>
+    </row>
+    <row r="20" spans="1:11" ht="16">
+      <c r="A20" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
+        <v>5C4-019</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="92"/>
+    </row>
+    <row r="21" spans="1:11" ht="16">
+      <c r="A21" s="27" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
+        <v>5C4-020</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="92"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="F27" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4867,8 +5541,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4880,20 +5554,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
       <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
@@ -4928,7 +5602,7 @@
         <v>216</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
@@ -4937,7 +5611,7 @@
         <v>5C4-002</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
@@ -4967,13 +5641,15 @@
       <c r="F4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>219</v>
+      <c r="G4" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="92"/>
+      <c r="I4" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="92"/>
       <c r="K4" s="92"/>
     </row>
@@ -4983,7 +5659,7 @@
         <v>5C4-004</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
@@ -5010,7 +5686,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16">
@@ -5019,7 +5695,7 @@
         <v>5C4-005</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="31"/>
@@ -5037,7 +5713,7 @@
         <v>5C4-006</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
@@ -5067,10 +5743,10 @@
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="31"/>
@@ -5087,7 +5763,7 @@
         <v>5C4-008</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>219</v>
@@ -5120,7 +5796,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="112" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="29"/>
@@ -5145,7 +5821,7 @@
         <v>5C4-010</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>219</v>
@@ -5169,7 +5845,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K11" s="92"/>
     </row>
@@ -5179,7 +5855,7 @@
         <v>5C4-011</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>219</v>
@@ -5213,31 +5889,31 @@
         <v>5C4-012</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>228</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>229</v>
       </c>
       <c r="K13" s="92"/>
     </row>
@@ -5247,7 +5923,7 @@
         <v>5C4-013</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
@@ -5281,7 +5957,7 @@
         <v>5C4-014</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>219</v>
@@ -5314,7 +5990,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="112" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="29"/>
@@ -5335,9 +6011,9 @@
     </row>
     <row r="17" spans="1:11" ht="16">
       <c r="A17" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="112" t="s">
         <v>217</v>
       </c>
       <c r="C17" s="29"/>
@@ -5361,7 +6037,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="112" t="s">
         <v>217</v>
       </c>
       <c r="C18" s="29"/>
@@ -5385,7 +6061,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>35</v>
@@ -5409,7 +6085,7 @@
         <v>35</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K19" s="92"/>
     </row>
@@ -5419,7 +6095,7 @@
         <v>5C4-019</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="33" t="s">
@@ -5445,7 +6121,7 @@
         <v>5C4-020</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>35</v>
@@ -5472,7 +6148,7 @@
         <v>35</v>
       </c>
       <c r="K21" s="92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5486,12 +6162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5501,20 +6177,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="107" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="109" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="86" t="s">
@@ -5524,13 +6200,13 @@
         <v>215</v>
       </c>
       <c r="C2" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="E2" s="86" t="s">
         <v>452</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>453</v>
       </c>
       <c r="F2" s="86"/>
       <c r="G2" s="87"/>
@@ -5540,7 +6216,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>217</v>
@@ -5556,16 +6232,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="73" t="s">
-        <v>437</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>221</v>
+        <v>436</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>217</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
@@ -5576,13 +6252,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="73" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="74" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>461</v>
+      </c>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -5592,10 +6272,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="81"/>
@@ -5608,14 +6288,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="81" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
@@ -5626,7 +6306,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>217</v>
@@ -5642,16 +6322,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="88" t="s">
         <v>459</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>460</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
@@ -5662,10 +6342,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="81"/>
@@ -5678,16 +6358,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="81" t="s">
         <v>467</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>468</v>
       </c>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
@@ -5698,16 +6378,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>457</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>458</v>
       </c>
       <c r="E12" s="81"/>
       <c r="F12" s="81"/>
@@ -5718,14 +6398,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
@@ -5736,14 +6416,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="73" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
@@ -5754,16 +6434,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="83" t="s">
         <v>469</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>470</v>
       </c>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
@@ -5774,10 +6454,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="81"/>
@@ -5790,10 +6470,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="81"/>
@@ -5806,10 +6486,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="81"/>
@@ -5825,7 +6505,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="85"/>
       <c r="D19" s="81"/>
@@ -5838,10 +6518,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="85"/>
       <c r="D20" s="81"/>
@@ -5854,10 +6534,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="85"/>
       <c r="D21" s="81"/>
@@ -5896,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5918,32 +6598,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16">
       <c r="A1" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
       <c r="A2" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>242</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -5951,25 +6631,25 @@
         <v>148</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
       <c r="E4" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
@@ -5977,20 +6657,20 @@
         <v>45</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="A6" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>247</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>248</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -5998,10 +6678,10 @@
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>249</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>250</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -6009,10 +6689,10 @@
     </row>
     <row r="8" spans="1:5" ht="16">
       <c r="A8" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>251</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>252</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -6027,16 +6707,16 @@
     </row>
     <row r="10" spans="1:5" ht="16">
       <c r="A10" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="D10" s="45" t="s">
         <v>254</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>255</v>
       </c>
       <c r="E10" s="49"/>
     </row>
@@ -6045,121 +6725,121 @@
         <v>146</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="E11" s="50" t="s">
         <v>257</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="E12" s="50" t="s">
         <v>260</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
       <c r="A13" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="C14" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="D14" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="E14" s="48" t="s">
         <v>268</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
       <c r="A15" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>254</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>255</v>
       </c>
       <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" ht="16">
       <c r="A16" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="51" t="s">
         <v>273</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="E17" s="53" t="s">
         <v>276</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="43"/>
@@ -6170,16 +6850,16 @@
         <v>81</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="E19" s="58" t="s">
         <v>280</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
@@ -6191,18 +6871,18 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -6211,74 +6891,74 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -7257,7 +7937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7274,36 +7954,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>296</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="A4" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
@@ -7312,269 +7992,269 @@
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>302</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="C25" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>330</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>332</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="C34" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="B37" s="64" t="s">
-        <v>340</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="B40" s="64" t="s">
-        <v>343</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
@@ -8536,7 +9216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8553,10 +9233,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -8565,7 +9245,7 @@
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9554,7 +10234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9574,22 +10254,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="E1" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
         <v>353</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9597,19 +10277,19 @@
         <v>28</v>
       </c>
       <c r="B2" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="65" t="s">
         <v>358</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9617,13 +10297,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="66" t="s">
         <v>361</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>362</v>
       </c>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
@@ -9633,19 +10313,19 @@
         <v>78</v>
       </c>
       <c r="B4" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
         <v>364</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9653,16 +10333,16 @@
         <v>193</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F5" s="68"/>
     </row>
@@ -9671,16 +10351,16 @@
         <v>73</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>367</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>368</v>
       </c>
       <c r="F6" s="68"/>
     </row>
@@ -9689,37 +10369,37 @@
         <v>101</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="C8" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="E8" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="F8" s="65" t="s">
         <v>373</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9727,57 +10407,57 @@
         <v>143</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>376</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>378</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9785,19 +10465,19 @@
         <v>105</v>
       </c>
       <c r="B12" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="F12" s="65" t="s">
         <v>381</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9805,16 +10485,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="66" t="s">
         <v>383</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>384</v>
       </c>
       <c r="F13" s="67"/>
     </row>
@@ -9823,19 +10503,19 @@
         <v>69</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9843,37 +10523,37 @@
         <v>110</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="E15" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" s="65" t="s">
         <v>387</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9881,53 +10561,53 @@
         <v>122</v>
       </c>
       <c r="B17" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="C17" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17" s="65" t="s">
+      <c r="E17" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17" s="65" t="s">
         <v>390</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>393</v>
-      </c>
       <c r="D18" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="F18" s="65" t="s">
         <v>373</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="69" t="s">
         <v>394</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>395</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
@@ -9937,33 +10617,33 @@
         <v>189</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D20" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>358</v>
-      </c>
       <c r="F20" s="65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="C21" s="65" t="s">
-        <v>371</v>
-      </c>
       <c r="D21" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="68"/>
@@ -9973,19 +10653,19 @@
         <v>92</v>
       </c>
       <c r="B22" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="C22" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>399</v>
-      </c>
       <c r="F22" s="65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9993,33 +10673,33 @@
         <v>48</v>
       </c>
       <c r="B23" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>400</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>371</v>
-      </c>
       <c r="D24" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="70"/>
@@ -10029,39 +10709,39 @@
         <v>39</v>
       </c>
       <c r="B25" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="65" t="s">
         <v>403</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" s="65" t="s">
         <v>405</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10069,16 +10749,16 @@
         <v>65</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F27" s="68"/>
     </row>
@@ -10087,39 +10767,39 @@
         <v>139</v>
       </c>
       <c r="B28" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" s="65" t="s">
         <v>407</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29" s="65" t="s">
         <v>409</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10127,39 +10807,39 @@
         <v>87</v>
       </c>
       <c r="B30" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F31" s="65" t="s">
         <v>413</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10167,19 +10847,19 @@
         <v>180</v>
       </c>
       <c r="B32" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" s="65" t="s">
         <v>415</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10187,17 +10867,17 @@
         <v>97</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E33" s="71"/>
       <c r="F33" s="65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10205,16 +10885,16 @@
         <v>171</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C34" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="E34" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F34" s="68"/>
     </row>
@@ -10223,19 +10903,19 @@
         <v>52</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D35" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E35" s="65" t="s">
-        <v>358</v>
-      </c>
       <c r="F35" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10243,33 +10923,33 @@
         <v>131</v>
       </c>
       <c r="B36" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F36" s="65" t="s">
         <v>421</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B37" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>371</v>
-      </c>
       <c r="D37" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="70"/>
@@ -10279,39 +10959,39 @@
         <v>154</v>
       </c>
       <c r="B38" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="F38" s="65" t="s">
         <v>424</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="E38" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="F38" s="65" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F39" s="65" t="s">
         <v>426</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E39" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F39" s="65" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10319,16 +10999,16 @@
         <v>57</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F40" s="68"/>
     </row>
@@ -10337,19 +11017,19 @@
         <v>32</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F41" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10357,19 +11037,19 @@
         <v>83</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F42" s="65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -10377,34 +11057,34 @@
         <v>166</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C43" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="E43" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F43" s="68"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="C44" s="65" t="s">
-        <v>371</v>
-      </c>
       <c r="D44" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>358</v>
       </c>
       <c r="F44" s="68"/>
     </row>
@@ -10413,19 +11093,19 @@
         <v>115</v>
       </c>
       <c r="B45" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F45" s="65" t="s">
         <v>433</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F45" s="65" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -10433,19 +11113,19 @@
         <v>175</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D46" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E46" s="65" t="s">
-        <v>358</v>
-      </c>
       <c r="F46" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:6">

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052DD102-6D3A-154C-87BC-582FD2A23689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F4047-4FB4-3948-BE50-C744D6D2D41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48340" yWindow="4400" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48340" yWindow="4400" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="475">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -2102,6 +2102,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2124,16 +2134,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2379,27 +2379,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="102" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3906,38 +3906,38 @@
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="100" t="s">
+      <c r="A61" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="100" t="s">
+      <c r="B61" s="105"/>
+      <c r="C61" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="101"/>
-      <c r="C62" s="100" t="s">
+      <c r="B62" s="105"/>
+      <c r="C62" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4900,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F153158-615D-8949-B96E-A7AB2B969FBA}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="A1:K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4915,20 +4915,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
       <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
@@ -4962,7 +4962,7 @@
       <c r="J2" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="102" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="101" t="s">
         <v>473</v>
       </c>
       <c r="G3" s="26"/>
@@ -4994,7 +4994,7 @@
       <c r="B4" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="101" t="s">
         <v>473</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -5015,7 +5015,7 @@
       <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="101" t="s">
         <v>473</v>
       </c>
       <c r="K4" s="92"/>
@@ -5116,7 +5116,7 @@
       <c r="C8" s="29"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="101" t="s">
         <v>473</v>
       </c>
       <c r="G8" s="38"/>
@@ -5132,7 +5132,7 @@
       <c r="B9" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="101" t="s">
         <v>473</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5153,10 +5153,10 @@
       <c r="I9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="K9" s="115">
+      <c r="K9" s="103">
         <v>44198</v>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="29"/>
@@ -5192,7 +5192,7 @@
       <c r="B11" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="101" t="s">
         <v>473</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -5213,10 +5213,10 @@
       <c r="I11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="113" t="s">
+      <c r="J11" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="K11" s="115">
+      <c r="K11" s="103">
         <v>44198</v>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       <c r="B12" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="101" t="s">
         <v>473</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -5249,7 +5249,7 @@
       <c r="I12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="113" t="s">
+      <c r="J12" s="101" t="s">
         <v>473</v>
       </c>
       <c r="K12" s="92"/>
@@ -5330,7 +5330,7 @@
       <c r="B15" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="101" t="s">
         <v>473</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -5351,7 +5351,7 @@
       <c r="I15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="101" t="s">
         <v>473</v>
       </c>
       <c r="K15" s="92"/>
@@ -5361,7 +5361,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="29"/>
@@ -5371,7 +5371,7 @@
       <c r="E16" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="101" t="s">
         <v>473</v>
       </c>
       <c r="G16" s="38"/>
@@ -5384,7 +5384,7 @@
       <c r="A17" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C17" s="29"/>
@@ -5408,7 +5408,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C18" s="29"/>
@@ -5418,7 +5418,7 @@
       <c r="E18" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="101" t="s">
         <v>473</v>
       </c>
       <c r="G18" s="38"/>
@@ -5541,8 +5541,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -5554,20 +5554,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
       <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
@@ -5796,7 +5796,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="29"/>
@@ -5990,7 +5990,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="29"/>
@@ -6013,21 +6013,23 @@
       <c r="A17" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="92"/>
@@ -6037,7 +6039,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="100" t="s">
         <v>217</v>
       </c>
       <c r="C18" s="29"/>
@@ -6177,20 +6179,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="113" t="s">
         <v>449</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="110"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="86" t="s">

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F4047-4FB4-3948-BE50-C744D6D2D41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660CEA0-5687-684C-B944-FFFB6308C7AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48340" yWindow="4400" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="485">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>5B</t>
   </si>
   <si>
-    <t>Needs X-Pol LNA replacement</t>
-  </si>
-  <si>
     <t>5C4-003</t>
   </si>
   <si>
@@ -1423,9 +1420,6 @@
     <t>X=0.237 Y=0.053 Z=0.185</t>
   </si>
   <si>
-    <t>X=0.070 Y=0.051 Z=0.163</t>
-  </si>
-  <si>
     <t>X=0.19 Y=0.05 Z=0.18</t>
   </si>
   <si>
@@ -1435,9 +1429,6 @@
     <t>X=0.09 Y=0.07 Z=0.260</t>
   </si>
   <si>
-    <t>X=0.07 Y=0.04 Z=0.158</t>
-  </si>
-  <si>
     <t>Inner Feed / LNAs</t>
   </si>
   <si>
@@ -1453,28 +1444,67 @@
     <t>X=0.120 Y=0.04 Z=0.220</t>
   </si>
   <si>
-    <t>X=0.08 Y=0.03 Z=0.150</t>
-  </si>
-  <si>
     <t>X=0.370 Y=0.08 Z=0.190</t>
   </si>
   <si>
-    <t>X=0.07 Y=0.03 Z=0.150</t>
-  </si>
-  <si>
     <t>X=0.20 Y=0.07 Z=0.200</t>
   </si>
   <si>
     <t>X=0.05 Y=0.05 Z=0.12</t>
   </si>
   <si>
-    <t>01/22/2021</t>
-  </si>
-  <si>
     <t>MINEX</t>
   </si>
   <si>
     <t>ETA on Antenna</t>
+  </si>
+  <si>
+    <t>X=0.70 Y=0.04 Z=0.130</t>
+  </si>
+  <si>
+    <t>(007) 85 / 99</t>
+  </si>
+  <si>
+    <t>2/19/2021</t>
+  </si>
+  <si>
+    <t>X=0.13 Y=0.05 Z=0.14</t>
+  </si>
+  <si>
+    <t>X=0.08 Y=0.04 Z=0.15</t>
+  </si>
+  <si>
+    <t>5c4-016</t>
+  </si>
+  <si>
+    <t>X=0.15 Y=0.05 Z=0.38</t>
+  </si>
+  <si>
+    <t>X=0.04 Y=0.05 Z=0.11</t>
+  </si>
+  <si>
+    <t>(004) 62 / 55</t>
+  </si>
+  <si>
+    <t>X=0.13 Y=0.05 Z=0.28</t>
+  </si>
+  <si>
+    <t>X=0.07 Y=0.02 Z=0.12</t>
+  </si>
+  <si>
+    <t>X=0.05 Y=0.04 Z=0.14</t>
+  </si>
+  <si>
+    <t>X=0.07 Y=0.03 Z=0.15</t>
+  </si>
+  <si>
+    <t>X=0.07 Y=0.05 Z=0.16</t>
+  </si>
+  <si>
+    <t>X=0.08 Y=0.03 Z=0.15</t>
+  </si>
+  <si>
+    <t>X=0.07 Y=0.04 Z=0.16</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1656,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1702,6 +1732,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,7 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1991,10 +2045,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2112,6 +2162,19 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2134,6 +2197,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2355,7 +2421,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2379,27 +2445,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="106" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -2432,13 +2498,13 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="16">
       <c r="A3" s="4" t="str">
@@ -2462,14 +2528,14 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
     </row>
     <row r="4" spans="1:17" ht="16">
       <c r="A4" s="4" t="str">
@@ -2493,14 +2559,14 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
     </row>
     <row r="5" spans="1:17" ht="16">
       <c r="A5" s="11" t="str">
@@ -2532,16 +2598,16 @@
       <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="J5" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
     </row>
     <row r="6" spans="1:17" ht="16">
       <c r="A6" s="11" t="str">
@@ -2565,14 +2631,14 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
     </row>
     <row r="7" spans="1:17" ht="16">
       <c r="A7" s="11" t="str">
@@ -2585,10 +2651,7 @@
       <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
-        <v>5C4-002</v>
-      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
         <v>43</v>
@@ -2598,14 +2661,14 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
     </row>
     <row r="8" spans="1:17" ht="16">
       <c r="A8" s="11" t="str">
@@ -2629,14 +2692,14 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
     </row>
     <row r="9" spans="1:17" ht="16">
       <c r="A9" s="4" t="str">
@@ -2649,10 +2712,7 @@
       <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="16" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
-        <v>5C4-008</v>
-      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="6" t="s">
         <v>52</v>
       </c>
@@ -2664,14 +2724,14 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
     </row>
     <row r="10" spans="1:17" ht="16">
       <c r="A10" s="4" t="str">
@@ -2696,14 +2756,14 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
     </row>
     <row r="11" spans="1:17" ht="16">
       <c r="A11" s="4" t="str">
@@ -2730,14 +2790,14 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
     </row>
     <row r="12" spans="1:17" ht="16">
       <c r="A12" s="4" t="str">
@@ -2762,14 +2822,14 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="1:17" ht="16">
       <c r="A13" s="4" t="str">
@@ -2794,16 +2854,16 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
+      <c r="J13" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
     </row>
     <row r="14" spans="1:17" ht="16">
       <c r="A14" s="4" t="str">
@@ -2828,16 +2888,16 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
+      <c r="J14" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
     </row>
     <row r="15" spans="1:17" ht="16">
       <c r="A15" s="4" t="str">
@@ -2861,14 +2921,14 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
     </row>
     <row r="16" spans="1:17" ht="16">
       <c r="A16" s="4" t="str">
@@ -2892,14 +2952,14 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
     </row>
     <row r="17" spans="1:17" ht="16">
       <c r="A17" s="4" t="str">
@@ -2912,7 +2972,9 @@
       <c r="C17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="E17" s="6" t="s">
         <v>87</v>
       </c>
@@ -2923,16 +2985,16 @@
         <v>35</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
+      <c r="J17" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" ht="16">
       <c r="A18" s="4" t="str">
@@ -2956,14 +3018,14 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
     </row>
     <row r="19" spans="1:17" ht="16">
       <c r="A19" s="4" t="str">
@@ -2990,14 +3052,14 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
     </row>
     <row r="20" spans="1:17" ht="16">
       <c r="A20" s="4" t="str">
@@ -3025,16 +3087,16 @@
       <c r="I20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
+      <c r="J20" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
     </row>
     <row r="21" spans="1:17" ht="16">
       <c r="A21" s="4" t="str">
@@ -3047,10 +3109,7 @@
       <c r="C21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="16" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
-        <v>5C4-014</v>
-      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="6" t="s">
         <v>105</v>
       </c>
@@ -3059,16 +3118,16 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
+      <c r="J21" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="str">
@@ -3092,14 +3151,14 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="str">
@@ -3123,14 +3182,14 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="str">
@@ -3143,10 +3202,7 @@
       <c r="C24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
-        <v>5C4-015</v>
-      </c>
+      <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="6" t="s">
         <v>119</v>
@@ -3156,14 +3212,14 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="str">
@@ -3192,14 +3248,14 @@
       <c r="I25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="str">
@@ -3212,10 +3268,7 @@
       <c r="C26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
-        <v>5C4-017</v>
-      </c>
+      <c r="D26" s="12"/>
       <c r="E26" s="13" t="s">
         <v>126</v>
       </c>
@@ -3227,14 +3280,14 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="str">
@@ -3258,14 +3311,14 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="str">
@@ -3292,14 +3345,14 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="str">
@@ -3326,14 +3379,14 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="str">
@@ -3360,14 +3413,14 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="str">
@@ -3383,22 +3436,20 @@
       <c r="D31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
         <v>140</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="str">
@@ -3411,12 +3462,11 @@
       <c r="C32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="16" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
-        <v>5C4-011</v>
+      <c r="D32" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>144</v>
@@ -3425,16 +3475,16 @@
         <v>35</v>
       </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
+      <c r="J32" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="str">
@@ -3461,14 +3511,14 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="str">
@@ -3495,14 +3545,14 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="str">
@@ -3526,14 +3576,14 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="str">
@@ -3560,14 +3610,14 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="str">
@@ -3596,16 +3646,16 @@
       <c r="I37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
+      <c r="J37" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="str">
@@ -3621,22 +3671,20 @@
       <c r="D38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
         <v>167</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="str">
@@ -3652,22 +3700,20 @@
       <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>171</v>
-      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
         <v>172</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="str">
@@ -3680,28 +3726,23 @@
       <c r="C40" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="16" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
-        <v>5C4-003</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
         <v>176</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
+      <c r="J40" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="str">
@@ -3717,22 +3758,20 @@
       <c r="D41" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="str">
@@ -3748,22 +3787,20 @@
       <c r="D42" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
         <v>185</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="str">
@@ -3779,22 +3816,20 @@
       <c r="D43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
         <v>190</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="str">
@@ -3810,22 +3845,20 @@
       <c r="D44" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
         <v>194</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
       <c r="K45" s="9"/>
@@ -3906,38 +3939,38 @@
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="104" t="s">
+      <c r="B61" s="110"/>
+      <c r="C61" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="105"/>
-      <c r="C62" s="104" t="s">
+      <c r="B62" s="110"/>
+      <c r="C62" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4901,35 +4934,35 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="99"/>
-    <col min="2" max="2" width="13.5" style="99" customWidth="1"/>
-    <col min="3" max="9" width="18" style="99" customWidth="1"/>
-    <col min="10" max="10" width="28" style="99" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="99" customWidth="1"/>
-    <col min="12" max="16384" width="11.1640625" style="99"/>
+    <col min="1" max="1" width="11.1640625" style="97"/>
+    <col min="2" max="2" width="13.5" style="97" customWidth="1"/>
+    <col min="3" max="9" width="18" style="97" customWidth="1"/>
+    <col min="10" max="10" width="28" style="97" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="97" customWidth="1"/>
+    <col min="12" max="16384" width="11.1640625" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="97"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -4962,8 +4995,8 @@
       <c r="J2" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="102" t="s">
-        <v>474</v>
+      <c r="K2" s="100" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
@@ -4971,14 +5004,18 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>224</v>
+      <c r="B3" s="98" t="s">
+        <v>217</v>
       </c>
       <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="101" t="s">
-        <v>473</v>
+      <c r="D3" s="103">
+        <v>44532</v>
+      </c>
+      <c r="E3" s="103">
+        <v>44532</v>
+      </c>
+      <c r="F3" s="102">
+        <v>44318</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -4994,8 +5031,8 @@
       <c r="B4" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>473</v>
+      <c r="C4" s="99" t="s">
+        <v>467</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>35</v>
@@ -5015,17 +5052,17 @@
       <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="K4" s="92"/>
+      <c r="J4" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" ht="16">
       <c r="A5" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>366</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -5052,7 +5089,7 @@
       <c r="J5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="92"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" ht="16">
       <c r="A6" s="27" t="str">
@@ -5063,14 +5100,14 @@
         <v>220</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="92"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:11" ht="16">
       <c r="A7" s="27" t="str">
@@ -5104,25 +5141,29 @@
       <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="92"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>224</v>
+      <c r="B8" s="98" t="s">
+        <v>217</v>
       </c>
       <c r="C8" s="29"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="92"/>
+      <c r="D8" s="103">
+        <v>44532</v>
+      </c>
+      <c r="E8" s="103">
+        <v>44532</v>
+      </c>
+      <c r="F8" s="102">
+        <v>44318</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" ht="16">
       <c r="A9" s="27" t="str">
@@ -5132,8 +5173,8 @@
       <c r="B9" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="101" t="s">
-        <v>473</v>
+      <c r="C9" s="99" t="s">
+        <v>467</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>35</v>
@@ -5153,10 +5194,10 @@
       <c r="I9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="K9" s="103">
+      <c r="J9" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="K9" s="101">
         <v>44198</v>
       </c>
     </row>
@@ -5165,24 +5206,24 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="98" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="92"/>
+      <c r="D10" s="103">
+        <v>44318</v>
+      </c>
+      <c r="E10" s="103">
+        <v>44318</v>
+      </c>
+      <c r="F10" s="103">
+        <v>44318</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" ht="16">
       <c r="A11" s="27" t="str">
@@ -5190,10 +5231,10 @@
         <v>5C4-010</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>473</v>
+        <v>462</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>467</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>35</v>
@@ -5213,10 +5254,10 @@
       <c r="I11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="K11" s="103">
+      <c r="J11" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" s="101">
         <v>44198</v>
       </c>
     </row>
@@ -5228,8 +5269,8 @@
       <c r="B12" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="101" t="s">
-        <v>473</v>
+      <c r="C12" s="99" t="s">
+        <v>467</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>35</v>
@@ -5249,10 +5290,10 @@
       <c r="I12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="K12" s="92"/>
+      <c r="J12" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11" ht="16">
       <c r="A13" s="27" t="str">
@@ -5262,7 +5303,7 @@
       <c r="B13" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -5283,10 +5324,10 @@
       <c r="I13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="92"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="16">
       <c r="A14" s="27" t="str">
@@ -5320,7 +5361,7 @@
       <c r="J14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="92"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" ht="16">
       <c r="A15" s="27" t="str">
@@ -5330,8 +5371,8 @@
       <c r="B15" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="101" t="s">
-        <v>473</v>
+      <c r="C15" s="99" t="s">
+        <v>467</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>35</v>
@@ -5351,90 +5392,100 @@
       <c r="I15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="K15" s="92"/>
+      <c r="J15" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" ht="16">
       <c r="A16" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30" t="s">
-        <v>219</v>
+        <v>471</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="92"/>
+        <v>471</v>
+      </c>
+      <c r="F16" s="102">
+        <v>44318</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" ht="16">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="92"/>
+      <c r="C17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:11" ht="16">
       <c r="A18" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="98" t="s">
         <v>217</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30" t="s">
-        <v>219</v>
+        <v>471</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="92"/>
+        <v>471</v>
+      </c>
+      <c r="F18" s="102">
+        <v>44318</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" ht="16">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="38" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -5455,10 +5506,10 @@
       <c r="I19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="K19" s="92"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" ht="16">
       <c r="A20" s="27" t="str">
@@ -5468,7 +5519,7 @@
       <c r="B20" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="33" t="s">
         <v>35</v>
       </c>
@@ -5481,20 +5532,20 @@
       <c r="G20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="92"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="90"/>
     </row>
     <row r="21" spans="1:11" ht="16">
       <c r="A21" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -5518,10 +5569,10 @@
       <c r="J21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="92"/>
+      <c r="K21" s="90"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="F27" s="98"/>
+      <c r="F27" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5541,34 +5592,34 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="A1:J21"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="97"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -5602,7 +5653,7 @@
         <v>216</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
@@ -5610,15 +5661,15 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>224</v>
+      <c r="B3" s="106" t="s">
+        <v>217</v>
       </c>
       <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
@@ -5628,10 +5679,10 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="92"/>
+      <c r="B4" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="36"/>
       <c r="D4" s="33" t="s">
         <v>35</v>
       </c>
@@ -5650,15 +5701,15 @@
       <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" ht="16">
       <c r="A5" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>366</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -5685,8 +5736,8 @@
       <c r="J5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="92" t="s">
-        <v>463</v>
+      <c r="K5" s="90" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16">
@@ -5705,7 +5756,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="92"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:11" ht="16">
       <c r="A7" s="27" t="str">
@@ -5739,23 +5790,42 @@
       <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="92"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="92"/>
+      <c r="B8" s="107" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="90" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16">
       <c r="A9" s="27" t="str">
@@ -5765,9 +5835,7 @@
       <c r="B9" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>219</v>
-      </c>
+      <c r="C9" s="90"/>
       <c r="D9" s="33" t="s">
         <v>35</v>
       </c>
@@ -5783,37 +5851,37 @@
       <c r="H9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="92"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="16">
       <c r="A10" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="104" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="D10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="92"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" ht="16">
       <c r="A11" s="27" t="str">
@@ -5821,10 +5889,10 @@
         <v>5C4-010</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>219</v>
+        <v>462</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>467</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>35</v>
@@ -5844,10 +5912,10 @@
       <c r="I11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="K11" s="92"/>
+      <c r="J11" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="16">
       <c r="A12" s="27" t="str">
@@ -5857,8 +5925,8 @@
       <c r="B12" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>219</v>
+      <c r="C12" s="105" t="s">
+        <v>467</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>35</v>
@@ -5878,10 +5946,10 @@
       <c r="I12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="92"/>
+      <c r="J12" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11" ht="16">
       <c r="A13" s="27" t="str">
@@ -5891,7 +5959,7 @@
       <c r="B13" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -5912,10 +5980,10 @@
       <c r="I13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="92"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="16">
       <c r="A14" s="27" t="str">
@@ -5949,7 +6017,7 @@
       <c r="J14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="92"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" ht="16">
       <c r="A15" s="27" t="str">
@@ -5959,8 +6027,8 @@
       <c r="B15" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>219</v>
+      <c r="C15" s="105" t="s">
+        <v>467</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>35</v>
@@ -5980,43 +6048,49 @@
       <c r="I15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="K15" s="92"/>
+      <c r="J15" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" ht="16">
       <c r="A16" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="104" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="D16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="92"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" ht="16">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="29"/>
+      <c r="B17" s="91" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="33" t="s">
         <v>35</v>
       </c>
@@ -6026,46 +6100,58 @@
       <c r="F17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="92"/>
+      <c r="G17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="90" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="16">
       <c r="A18" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="98" t="s">
         <v>217</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="H18" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="92"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" ht="16">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="38" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -6086,10 +6172,10 @@
       <c r="I19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="K19" s="92"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" ht="16">
       <c r="A20" s="27" t="str">
@@ -6099,7 +6185,7 @@
       <c r="B20" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="33" t="s">
         <v>35</v>
       </c>
@@ -6112,20 +6198,20 @@
       <c r="G20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="92"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="90"/>
     </row>
     <row r="21" spans="1:11" ht="16">
       <c r="A21" s="27" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -6149,8 +6235,8 @@
       <c r="J21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="92" t="s">
-        <v>464</v>
+      <c r="K21" s="90" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -6169,7 +6255,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6179,376 +6265,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="119"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1">
+      <c r="A2" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="84" t="s">
         <v>449</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1">
-      <c r="A2" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="86" t="s">
+      <c r="D2" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="E2" s="84" t="s">
         <v>451</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="71" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="71" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="71" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="71" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="73" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="73" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>470</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>471</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="73" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="73" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="73" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="81" t="s">
-        <v>455</v>
-      </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="73" t="s">
-        <v>440</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>459</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="81"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="73" t="s">
-        <v>441</v>
-      </c>
-      <c r="B10" s="77" t="s">
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="79" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>481</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="73" t="s">
-        <v>442</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="73" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>456</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>457</v>
-      </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="73" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="73" t="s">
-        <v>445</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="81" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="73" t="s">
+      <c r="C16" s="81" t="s">
+        <v>478</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>480</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>468</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>469</v>
-      </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="73" t="s">
+      <c r="B20" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="73" t="s">
-        <v>448</v>
-      </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6599,16 +6701,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>238</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -6616,299 +6718,299 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="46" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="49" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="51" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="56" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="55"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>286</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -6916,7 +7018,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>288</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -6924,7 +7026,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -6932,7 +7034,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>290</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -6940,7 +7042,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>291</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -6948,7 +7050,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>292</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -6956,7 +7058,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>293</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -7960,10 +8062,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8012,7 +8114,7 @@
       <c r="A9" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8114,7 +8216,7 @@
       <c r="A25" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>325</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -8125,7 +8227,7 @@
       <c r="A26" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="62" t="s">
         <v>327</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -8137,7 +8239,7 @@
       <c r="A28" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="62" t="s">
         <v>329</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -8148,7 +8250,7 @@
       <c r="A29" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="62" t="s">
         <v>330</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -8160,7 +8262,7 @@
       <c r="A31" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="62" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8168,7 +8270,7 @@
       <c r="A32" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="62" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8177,7 +8279,7 @@
       <c r="A34" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="62" t="s">
         <v>335</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -8188,7 +8290,7 @@
       <c r="A35" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -8200,7 +8302,7 @@
       <c r="A37" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="62" t="s">
         <v>339</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -8211,7 +8313,7 @@
       <c r="A38" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="62" t="s">
         <v>340</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -8223,7 +8325,7 @@
       <c r="A40" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="62" t="s">
         <v>342</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -8234,7 +8336,7 @@
       <c r="A41" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="62" t="s">
         <v>343</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -9243,7 +9345,7 @@
     </row>
     <row r="2" spans="1:2" ht="16">
       <c r="A2" s="13"/>
-      <c r="B2" s="63"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="5" t="s">
@@ -10255,883 +10357,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="63" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="63" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="63" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="63" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="63" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="F13" s="67"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="63" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="63" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="63" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="63" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="63" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="63" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="63" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="63" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="63" t="s">
         <v>408</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="63" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="63" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="63" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="63" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="63" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="65" t="s">
+      <c r="E33" s="69"/>
+      <c r="F33" s="63" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="66"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="63" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="63" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="63" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="63" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F40" s="68"/>
+      <c r="F40" s="66"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="E41" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="63" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="E42" s="65" t="s">
+      <c r="E42" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="63" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F43" s="68"/>
+      <c r="F43" s="66"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F44" s="68"/>
+      <c r="F44" s="66"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="63" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E46" s="65" t="s">
+      <c r="E46" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="63" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="72"/>
+      <c r="A47" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660CEA0-5687-684C-B944-FFFB6308C7AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBDF19-EC5A-9141-A96A-E1DC3BD9CD16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76480" yWindow="460" windowWidth="35840" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="435">
   <si>
     <t>Antenna Inventory</t>
   </si>
   <si>
-    <t>Antenna Modification and Measurements</t>
-  </si>
-  <si>
     <t>Feed Revision Overview</t>
   </si>
   <si>
@@ -76,15 +73,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>GND bridge</t>
-  </si>
-  <si>
-    <t>Measured PAX</t>
-  </si>
-  <si>
-    <t>H/C Measurement Feed</t>
-  </si>
-  <si>
     <t>Tip-Link: R03</t>
   </si>
   <si>
@@ -127,15 +115,9 @@
     <t>DB-030</t>
   </si>
   <si>
-    <t>SB-008</t>
-  </si>
-  <si>
     <t>PB-001</t>
   </si>
   <si>
-    <t>RFCB-025</t>
-  </si>
-  <si>
     <t>CB-0028</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>RFCB-040</t>
   </si>
   <si>
-    <t xml:space="preserve">PB tested and replaced </t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -160,27 +139,15 @@
     <t>DB-008</t>
   </si>
   <si>
-    <t>SB-028</t>
-  </si>
-  <si>
     <t>PB-024</t>
   </si>
   <si>
-    <t>RFCB-036</t>
-  </si>
-  <si>
     <t>CB-0029</t>
   </si>
   <si>
     <t>DB-039</t>
   </si>
   <si>
-    <t>RFCB-033</t>
-  </si>
-  <si>
-    <t>Feed at Minex for repair, PB is in E-Lab</t>
-  </si>
-  <si>
     <t>CB-0138</t>
   </si>
   <si>
@@ -205,12 +172,6 @@
     <t>PB-034</t>
   </si>
   <si>
-    <t>RFCB-038</t>
-  </si>
-  <si>
-    <t>no RFCB</t>
-  </si>
-  <si>
     <t>CB-0034</t>
   </si>
   <si>
@@ -232,9 +193,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>no feed, no RFCB</t>
-  </si>
-  <si>
     <t>CB-0046</t>
   </si>
   <si>
@@ -277,30 +235,18 @@
     <t>DB-033</t>
   </si>
   <si>
-    <t>SB-012</t>
-  </si>
-  <si>
     <t>PB-003</t>
   </si>
   <si>
-    <t>RFCB-026</t>
-  </si>
-  <si>
     <t>CB-0051</t>
   </si>
   <si>
     <t>DB-0002</t>
   </si>
   <si>
-    <t>SB-014</t>
-  </si>
-  <si>
     <t>PB-041</t>
   </si>
   <si>
-    <t>RFCB-011</t>
-  </si>
-  <si>
     <t>CB-0020</t>
   </si>
   <si>
@@ -319,24 +265,15 @@
     <t>DB-017</t>
   </si>
   <si>
-    <t>SB-019</t>
-  </si>
-  <si>
     <t>PB-021</t>
   </si>
   <si>
-    <t>RFCB-034</t>
-  </si>
-  <si>
     <t>CB-0101</t>
   </si>
   <si>
     <t>DB-045</t>
   </si>
   <si>
-    <t>SB-027</t>
-  </si>
-  <si>
     <t>PB-032</t>
   </si>
   <si>
@@ -364,48 +301,30 @@
     <t>PB-011</t>
   </si>
   <si>
-    <t>RFCB-013</t>
-  </si>
-  <si>
     <t>CB-0044</t>
   </si>
   <si>
     <t>DB-032</t>
   </si>
   <si>
-    <t>SB-016</t>
-  </si>
-  <si>
     <t>PB-014</t>
   </si>
   <si>
-    <t>RFCB-017</t>
-  </si>
-  <si>
     <t>CB-0010</t>
   </si>
   <si>
     <t>DB-012</t>
   </si>
   <si>
-    <t>SB-024</t>
-  </si>
-  <si>
     <t>PB-044</t>
   </si>
   <si>
-    <t>RFCB-020</t>
-  </si>
-  <si>
     <t>CB-0032</t>
   </si>
   <si>
     <t>DB-007</t>
   </si>
   <si>
-    <t>RFCB-015</t>
-  </si>
-  <si>
     <t>CB-0033</t>
   </si>
   <si>
@@ -427,49 +346,24 @@
     <t>PB-002</t>
   </si>
   <si>
-    <t>RFCB-018</t>
-  </si>
-  <si>
     <t>CB-0003</t>
   </si>
   <si>
     <t>DB-011</t>
   </si>
   <si>
-    <t>SB-003</t>
-  </si>
-  <si>
     <t>PB-035</t>
   </si>
   <si>
-    <t>RFCB-023</t>
-  </si>
-  <si>
-    <t>no feed, needs all three rimbox boards, 
-24v power supply and power dist board</t>
-  </si>
-  <si>
-    <t>no feed</t>
-  </si>
-  <si>
-    <t>no feed, needs 24 power supply</t>
-  </si>
-  <si>
     <t>CB-0040</t>
   </si>
   <si>
     <t>DB-013</t>
   </si>
   <si>
-    <t>SB-007</t>
-  </si>
-  <si>
     <t>PB-027</t>
   </si>
   <si>
-    <t>RFCB-049</t>
-  </si>
-  <si>
     <t>CB-0030</t>
   </si>
   <si>
@@ -488,18 +382,12 @@
     <t>DB-0014</t>
   </si>
   <si>
-    <t>RFCB-044</t>
-  </si>
-  <si>
     <t>CB-0113</t>
   </si>
   <si>
     <t>DB-0049</t>
   </si>
   <si>
-    <t>RFCB-021</t>
-  </si>
-  <si>
     <t>CB-0043</t>
   </si>
   <si>
@@ -521,12 +409,6 @@
     <t>DB 0006</t>
   </si>
   <si>
-    <t>RFCB-022</t>
-  </si>
-  <si>
-    <t>no feed, rim box needs 24V supply and power dist board</t>
-  </si>
-  <si>
     <t>CB-0019</t>
   </si>
   <si>
@@ -542,30 +424,18 @@
     <t>DB-046</t>
   </si>
   <si>
-    <t>SB-023</t>
-  </si>
-  <si>
     <t>PB-042</t>
   </si>
   <si>
-    <t>RFCB-030</t>
-  </si>
-  <si>
     <t>CB-0041</t>
   </si>
   <si>
     <t>DB-040</t>
   </si>
   <si>
-    <t>SB-031</t>
-  </si>
-  <si>
     <t>PB-033</t>
   </si>
   <si>
-    <t>RFCB-041</t>
-  </si>
-  <si>
     <t>CB-0031</t>
   </si>
   <si>
@@ -575,9 +445,6 @@
     <t>PB-045</t>
   </si>
   <si>
-    <t>RFCB-012</t>
-  </si>
-  <si>
     <t>CB-0100</t>
   </si>
   <si>
@@ -599,37 +466,19 @@
     <t>DB-029</t>
   </si>
   <si>
-    <t>SB-021</t>
-  </si>
-  <si>
-    <t>RFCB-051</t>
-  </si>
-  <si>
     <t>CB-0008</t>
   </si>
   <si>
     <t>DB-024</t>
   </si>
   <si>
-    <t>SB-046</t>
-  </si>
-  <si>
     <t>PB-019</t>
   </si>
   <si>
-    <t>RFCB-019</t>
-  </si>
-  <si>
     <t>DB-028</t>
   </si>
   <si>
-    <t>SB-033</t>
-  </si>
-  <si>
     <t>PB-004</t>
-  </si>
-  <si>
-    <t>RFCB-052</t>
   </si>
   <si>
     <t>Antonio feeds: 1c,1e,1g,1h,1k,2a,2b,2e,2h,2j,2m,3c,3d,3l,4j,5b</t>
@@ -1417,18 +1266,12 @@
     <t>X=0.15 Y=0.13 Z=0.10</t>
   </si>
   <si>
-    <t>X=0.237 Y=0.053 Z=0.185</t>
-  </si>
-  <si>
     <t>X=0.19 Y=0.05 Z=0.18</t>
   </si>
   <si>
     <t>X=0.09 Y=0.04 Z=0.16</t>
   </si>
   <si>
-    <t>X=0.09 Y=0.07 Z=0.260</t>
-  </si>
-  <si>
     <t>Inner Feed / LNAs</t>
   </si>
   <si>
@@ -1441,15 +1284,6 @@
     <t xml:space="preserve">Feed Lab </t>
   </si>
   <si>
-    <t>X=0.120 Y=0.04 Z=0.220</t>
-  </si>
-  <si>
-    <t>X=0.370 Y=0.08 Z=0.190</t>
-  </si>
-  <si>
-    <t>X=0.20 Y=0.07 Z=0.200</t>
-  </si>
-  <si>
     <t>X=0.05 Y=0.05 Z=0.12</t>
   </si>
   <si>
@@ -1459,9 +1293,6 @@
     <t>ETA on Antenna</t>
   </si>
   <si>
-    <t>X=0.70 Y=0.04 Z=0.130</t>
-  </si>
-  <si>
     <t>(007) 85 / 99</t>
   </si>
   <si>
@@ -1505,6 +1336,24 @@
   </si>
   <si>
     <t>X=0.07 Y=0.04 Z=0.16</t>
+  </si>
+  <si>
+    <t>X=0.70 Y=0.04 Z=0.13</t>
+  </si>
+  <si>
+    <t>X=0.37 Y=0.08 Z=0.19</t>
+  </si>
+  <si>
+    <t>X=0.24 Y=0.05 Z=0.19</t>
+  </si>
+  <si>
+    <t>X=0.12 Y=0.04 Z=0.22</t>
+  </si>
+  <si>
+    <t>X=0.09 Y=0.07 Z=0.26</t>
+  </si>
+  <si>
+    <t>X=0.20 Y=0.07 Z=0.20</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1815,17 +1664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1834,15 +1672,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1983,35 +1812,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2019,43 +1834,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2087,54 +1902,54 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2142,39 +1957,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2187,7 +2005,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2199,9 +2017,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2420,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2445,1532 +2264,1342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="16">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:17" ht="16">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
     </row>
     <row r="5" spans="1:17" ht="16">
-      <c r="A5" s="11" t="str">
+      <c r="A5" s="7" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="str">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
     </row>
     <row r="6" spans="1:17" ht="16">
-      <c r="A6" s="11" t="str">
+      <c r="A6" s="7" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" ht="16">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="7" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
     </row>
     <row r="8" spans="1:17" ht="16">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="7" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="16">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
     </row>
     <row r="10" spans="1:17" ht="16">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="16" t="str">
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" spans="1:17" ht="16">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
     </row>
     <row r="12" spans="1:17" ht="16">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="16" t="str">
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
     </row>
     <row r="13" spans="1:17" ht="16">
-      <c r="A13" s="4" t="str">
+      <c r="A13" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="16" t="str">
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
     </row>
     <row r="14" spans="1:17" ht="16">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="16" t="str">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
     </row>
     <row r="15" spans="1:17" ht="16">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
     </row>
     <row r="16" spans="1:17" ht="16">
-      <c r="A16" s="4" t="str">
+      <c r="A16" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
     </row>
     <row r="17" spans="1:17" ht="16">
-      <c r="A17" s="4" t="str">
+      <c r="A17" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
     </row>
     <row r="18" spans="1:17" ht="16">
-      <c r="A18" s="4" t="str">
+      <c r="A18" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
     </row>
     <row r="19" spans="1:17" ht="16">
-      <c r="A19" s="4" t="str">
+      <c r="A19" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
     </row>
     <row r="20" spans="1:17" ht="16">
-      <c r="A20" s="4" t="str">
+      <c r="A20" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
     </row>
     <row r="21" spans="1:17" ht="16">
-      <c r="A21" s="4" t="str">
+      <c r="A21" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="str">
+      <c r="A22" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
+      <c r="B22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="str">
+      <c r="A23" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="str">
+      <c r="A24" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="str">
+      <c r="A25" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="12" t="str">
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="8" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
+      <c r="E25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="str">
+      <c r="A26" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="117"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="str">
+      <c r="A27" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
+      <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="119"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="str">
+      <c r="A28" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="str">
+      <c r="A29" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
+      <c r="B29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
+      <c r="B30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="str">
+      <c r="A31" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="str">
+      <c r="A32" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
+      <c r="F32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
+      <c r="B33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
+      <c r="B34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="str">
+      <c r="A35" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
+      <c r="B35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="str">
+      <c r="A36" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
+      <c r="B36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="str">
+      <c r="A37" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="16" t="str">
+      <c r="B37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
+      <c r="E37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="str">
+      <c r="A38" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
+      <c r="B38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="str">
+      <c r="A39" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
+      <c r="B39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="str">
+      <c r="A40" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
+      <c r="B40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="str">
+      <c r="A41" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
+      <c r="B41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="str">
+      <c r="A42" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="str">
+      <c r="A43" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
+      <c r="B43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="str">
+      <c r="A44" s="2" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
+      <c r="B44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="10"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A47" s="13" t="s">
-        <v>195</v>
+      <c r="A47" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>196</v>
+      <c r="A48" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>197</v>
+      <c r="A49" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>198</v>
+      <c r="A50" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="13" t="s">
-        <v>199</v>
+      <c r="A51" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>200</v>
+      <c r="A53" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="A54" s="9"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>203</v>
+      <c r="A55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>206</v>
+      <c r="A56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>208</v>
+      <c r="A57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="13"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
+      <c r="A59" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="18"/>
+      <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="109" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="110"/>
-      <c r="C61" s="109" t="s">
-        <v>210</v>
-      </c>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110"/>
+      <c r="A61" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="105"/>
+      <c r="C61" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="109" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" s="110"/>
-      <c r="C62" s="109" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110"/>
+      <c r="A62" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="105"/>
+      <c r="C62" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -3979,7 +3608,7 @@
     <row r="67" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="68" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="69" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A69" s="18"/>
+      <c r="A69" s="12"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="71" spans="1:1" ht="15.75" customHeight="1"/>
@@ -4939,640 +4568,640 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="97"/>
-    <col min="2" max="2" width="13.5" style="97" customWidth="1"/>
-    <col min="3" max="9" width="18" style="97" customWidth="1"/>
-    <col min="10" max="10" width="28" style="97" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="97" customWidth="1"/>
-    <col min="12" max="16384" width="11.1640625" style="97"/>
+    <col min="1" max="1" width="11.1640625" style="91"/>
+    <col min="2" max="2" width="13.5" style="91" customWidth="1"/>
+    <col min="3" max="9" width="18" style="91" customWidth="1"/>
+    <col min="10" max="10" width="28" style="91" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="91" customWidth="1"/>
+    <col min="12" max="16384" width="11.1640625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="95"/>
+      <c r="A1" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
-      <c r="A2" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="100" t="s">
-        <v>468</v>
+      <c r="J2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="24" t="str">
+      <c r="A3" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="103">
+      <c r="B3" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="97">
         <v>44532</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="97">
         <v>44532</v>
       </c>
-      <c r="F3" s="102">
+      <c r="F3" s="96">
         <v>44318</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="K4" s="90"/>
+      <c r="B4" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="27" t="str">
+      <c r="A5" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="90"/>
+      <c r="B5" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="27" t="str">
+      <c r="A6" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="90"/>
+      <c r="B6" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="16">
-      <c r="A7" s="27" t="str">
+      <c r="A7" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="90"/>
+      <c r="B7" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="103">
+      <c r="A8" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="97">
         <v>44532</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="97">
         <v>44532</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="96">
         <v>44318</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="90"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="16">
-      <c r="A9" s="27" t="str">
+      <c r="A9" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="K9" s="101">
+      <c r="B9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="K9" s="95">
         <v>44198</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="27" t="str">
+      <c r="A10" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="103">
+      <c r="B10" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="97">
         <v>44318</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="97">
         <v>44318</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="97">
         <v>44318</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="90"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11" ht="16">
-      <c r="A11" s="27" t="str">
+      <c r="A11" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="K11" s="101">
+      <c r="B11" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="K11" s="95">
         <v>44198</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16">
-      <c r="A12" s="27" t="str">
+      <c r="A12" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="K12" s="90"/>
+      <c r="B12" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="27" t="str">
+      <c r="A13" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="90"/>
+      <c r="B13" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="27" t="str">
+      <c r="A14" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="90"/>
+      <c r="B14" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="16">
-      <c r="A15" s="27" t="str">
+      <c r="A15" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="K15" s="90"/>
+      <c r="B15" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="16">
-      <c r="A16" s="27" t="str">
+      <c r="A16" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="F16" s="102">
+      <c r="B16" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="F16" s="96">
         <v>44318</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="90"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" ht="16">
-      <c r="A17" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="90"/>
+      <c r="A17" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" ht="16">
-      <c r="A18" s="27" t="str">
+      <c r="A18" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="F18" s="102">
+      <c r="B18" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="96">
         <v>44318</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="90"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="16">
-      <c r="A19" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="90"/>
+      <c r="A19" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="16">
-      <c r="A20" s="27" t="str">
+      <c r="A20" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="90"/>
+      <c r="B20" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:11" ht="16">
-      <c r="A21" s="27" t="str">
+      <c r="A21" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="90"/>
+      <c r="B21" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="84"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="F27" s="96"/>
+      <c r="F27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5592,8 +5221,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -5605,638 +5234,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="95"/>
+      <c r="A1" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
-      <c r="A2" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>459</v>
+      <c r="J2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="24" t="str">
+      <c r="A3" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="108" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="90"/>
+      <c r="B4" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="27" t="str">
+      <c r="A5" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="90" t="s">
-        <v>460</v>
+      <c r="B5" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="27" t="str">
+      <c r="A6" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="90"/>
+      <c r="B6" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="16">
-      <c r="A7" s="27" t="str">
+      <c r="A7" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="90"/>
+      <c r="B7" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="90" t="s">
-        <v>477</v>
+      <c r="A8" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16">
-      <c r="A9" s="27" t="str">
+      <c r="A9" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="90"/>
+      <c r="B9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="27" t="str">
+      <c r="A10" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="90"/>
+      <c r="B10" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11" ht="16">
-      <c r="A11" s="27" t="str">
+      <c r="A11" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="K11" s="90"/>
+      <c r="B11" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:11" ht="16">
-      <c r="A12" s="27" t="str">
+      <c r="A12" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="K12" s="90"/>
+      <c r="B12" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="27" t="str">
+      <c r="A13" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="90"/>
+      <c r="B13" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="27" t="str">
+      <c r="A14" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="90"/>
+      <c r="B14" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="16">
-      <c r="A15" s="27" t="str">
+      <c r="A15" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="K15" s="90"/>
+      <c r="B15" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="16">
-      <c r="A16" s="27" t="str">
+      <c r="A16" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="90"/>
+      <c r="B16" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" ht="16">
-      <c r="A17" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>410</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="90" t="s">
-        <v>470</v>
+      <c r="A17" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16">
-      <c r="A18" s="27" t="str">
+      <c r="A18" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="90"/>
+      <c r="B18" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="16">
-      <c r="A19" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="90"/>
+      <c r="A19" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="16">
-      <c r="A20" s="27" t="str">
+      <c r="A20" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="90"/>
+      <c r="B20" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:11" ht="16">
-      <c r="A21" s="27" t="str">
+      <c r="A21" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="90" t="s">
-        <v>461</v>
+      <c r="B21" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="84" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6255,7 +5882,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6265,392 +5892,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="118" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="118" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="119"/>
+      <c r="A1" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="113" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
-      <c r="A2" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>449</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>450</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>451</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="A2" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="A3" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="71" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>465</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>466</v>
-      </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="71" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="71" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="A6" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="71" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="79" t="s">
-        <v>454</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
+      <c r="A7" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>475</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>476</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="A8" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>457</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="79"/>
+      <c r="A9" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>473</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
+      <c r="A10" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="71" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>463</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>483</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
+      <c r="A11" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>455</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>482</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="A12" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="71" t="s">
-        <v>443</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="79" t="s">
-        <v>452</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="A13" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="79" t="s">
-        <v>453</v>
-      </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
+      <c r="A14" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>464</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>481</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
+      <c r="A15" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>479</v>
-      </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
+      <c r="A16" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
+      <c r="A17" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="71" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
+      <c r="A18" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
+      <c r="A19" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
+      <c r="A20" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="71" t="s">
-        <v>447</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
+      <c r="A21" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6701,368 +6330,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" outlineLevel="1">
+      <c r="A13" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="36"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B25" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="B26" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="40" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="B27" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="40" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="41" t="s">
+      <c r="B28" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B29" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="13" t="s">
+      <c r="B30" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="40" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="B31" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" outlineLevel="1">
-      <c r="A13" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="53"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="53"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>287</v>
+      <c r="B32" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -8057,308 +7686,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="13" t="s">
-        <v>294</v>
+      <c r="A1" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>296</v>
+      <c r="A3" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>222</v>
+      <c r="A4" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>299</v>
+      <c r="A5" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="16" t="str">
+      <c r="A6" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>302</v>
+      <c r="A7" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>304</v>
+      <c r="A8" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>231</v>
+      <c r="A9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="20" t="s">
-        <v>306</v>
+      <c r="A11" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>309</v>
+      <c r="A13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>309</v>
+      <c r="A14" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
-      <c r="A15" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>312</v>
+      <c r="A15" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
-      <c r="A16" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>313</v>
+      <c r="A16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
-      <c r="A17" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>316</v>
+      <c r="A17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
-      <c r="A18" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>316</v>
+      <c r="A18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
-      <c r="A20" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>320</v>
+      <c r="A20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>322</v>
+      <c r="A21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>323</v>
+      <c r="A23" s="14" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>326</v>
+      <c r="A25" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>326</v>
+      <c r="A26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>326</v>
+      <c r="A28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>326</v>
+      <c r="A29" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>332</v>
+      <c r="A31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>333</v>
+      <c r="A32" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>336</v>
+      <c r="A34" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>336</v>
+      <c r="A35" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>336</v>
+      <c r="A37" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>336</v>
+      <c r="A38" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>336</v>
+      <c r="A40" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>336</v>
+      <c r="A41" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="20" t="s">
-        <v>344</v>
+      <c r="A44" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>345</v>
+      <c r="A46" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>346</v>
+      <c r="A47" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
@@ -9336,20 +8965,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>296</v>
+      <c r="A1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="13"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="5" t="s">
-        <v>347</v>
+      <c r="A4" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -10357,883 +9986,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="60"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="60"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="F22" s="57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C23" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="D1" s="63" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="B24" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="C25" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="63" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="B26" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="63" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="60"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="C28" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="63" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="57" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
+      <c r="B29" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" s="66"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" s="66"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F9" s="66"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" s="63" t="s">
+      <c r="B43" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="C43" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="57" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="64" t="s">
+      <c r="B44" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="60"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13" s="64" t="s">
+      <c r="C45" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="F13" s="65"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F14" s="63" t="s">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="57" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15" s="66"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>394</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="67" t="s">
-        <v>401</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>394</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F27" s="66"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="63" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F34" s="66"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>419</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="67" t="s">
-        <v>422</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>394</v>
-      </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F38" s="63" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>427</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F40" s="66"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F41" s="63" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>429</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="F42" s="63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F43" s="66"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="63" t="s">
-        <v>431</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F44" s="66"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="C46" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F46" s="63" t="s">
-        <v>387</v>
+      <c r="C46" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="70"/>
+      <c r="A47" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBDF19-EC5A-9141-A96A-E1DC3BD9CD16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008E538-FF56-5641-A311-1BADF1E9DD50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76480" yWindow="460" windowWidth="35840" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76480" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Feed Retrofit Overview Dates" sheetId="8" r:id="rId2"/>
-    <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId3"/>
-    <sheet name="Vibration Measurements" sheetId="7" r:id="rId4"/>
-    <sheet name="Parts at SRI" sheetId="3" r:id="rId5"/>
-    <sheet name="Parts at Minex" sheetId="4" r:id="rId6"/>
-    <sheet name="Parts at SSL" sheetId="5" r:id="rId7"/>
-    <sheet name="PAX Boxes" sheetId="6" r:id="rId8"/>
+    <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId2"/>
+    <sheet name="Vibration Measurements" sheetId="7" r:id="rId3"/>
+    <sheet name="Parts at SRI" sheetId="3" r:id="rId4"/>
+    <sheet name="Parts at Minex" sheetId="4" r:id="rId5"/>
+    <sheet name="Parts at SSL" sheetId="5" r:id="rId6"/>
+    <sheet name="PAX Boxes" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="xx_1" localSheetId="0">'Parts At ATA'!$A$2:$G$44</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="432">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -548,9 +547,6 @@
   </si>
   <si>
     <t>Feed Lab</t>
-  </si>
-  <si>
-    <t>Feed Lab (5B)</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -1290,13 +1286,7 @@
     <t>MINEX</t>
   </si>
   <si>
-    <t>ETA on Antenna</t>
-  </si>
-  <si>
     <t>(007) 85 / 99</t>
-  </si>
-  <si>
-    <t>2/19/2021</t>
   </si>
   <si>
     <t>X=0.13 Y=0.05 Z=0.14</t>
@@ -1505,7 +1495,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1606,6 +1596,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1812,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1965,24 +1961,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1993,18 +1972,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2017,10 +2000,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2239,7 +2219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -2264,25 +2244,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -2417,9 +2397,9 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="H6" s="81"/>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
@@ -2442,9 +2422,9 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="9"/>
       <c r="H7" s="81"/>
       <c r="I7" s="81"/>
@@ -2730,7 +2710,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>69</v>
@@ -2842,9 +2822,9 @@
       <c r="C21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
@@ -2867,9 +2847,9 @@
       <c r="C22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
@@ -2892,9 +2872,9 @@
       <c r="C23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
@@ -2917,9 +2897,9 @@
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="9"/>
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
@@ -2975,9 +2955,9 @@
       <c r="C26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="9"/>
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
@@ -3001,9 +2981,9 @@
       <c r="C27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="119"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="100"/>
       <c r="H27" s="81"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
@@ -3148,7 +3128,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>144</v>
@@ -3470,7 +3450,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>143</v>
@@ -3568,38 +3548,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="104" t="s">
+      <c r="B61" s="102"/>
+      <c r="C61" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="105"/>
-      <c r="C62" s="104" t="s">
+      <c r="B62" s="102"/>
+      <c r="C62" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4559,661 +4539,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F153158-615D-8949-B96E-A7AB2B969FBA}">
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" style="91"/>
-    <col min="2" max="2" width="13.5" style="91" customWidth="1"/>
-    <col min="3" max="9" width="18" style="91" customWidth="1"/>
-    <col min="10" max="10" width="28" style="91" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="91" customWidth="1"/>
-    <col min="12" max="16384" width="11.1640625" style="91"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1">
-      <c r="A2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="18" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
-        <v>5C4-002</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="97">
-        <v>44532</v>
-      </c>
-      <c r="E3" s="97">
-        <v>44532</v>
-      </c>
-      <c r="F3" s="96">
-        <v>44318</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
-        <v>5C4-003</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="K4" s="84"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
-        <v>5C4-004</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="84"/>
-    </row>
-    <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
-        <v>5C4-005</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="84"/>
-    </row>
-    <row r="7" spans="1:11" ht="16">
-      <c r="A7" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
-        <v>5C4-006</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="84"/>
-    </row>
-    <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="97">
-        <v>44532</v>
-      </c>
-      <c r="E8" s="97">
-        <v>44532</v>
-      </c>
-      <c r="F8" s="96">
-        <v>44318</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="84"/>
-    </row>
-    <row r="9" spans="1:11" ht="16">
-      <c r="A9" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
-        <v>5C4-008</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="K9" s="95">
-        <v>44198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
-        <v>5C4-009</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="97">
-        <v>44318</v>
-      </c>
-      <c r="E10" s="97">
-        <v>44318</v>
-      </c>
-      <c r="F10" s="97">
-        <v>44318</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="84"/>
-    </row>
-    <row r="11" spans="1:11" ht="16">
-      <c r="A11" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
-        <v>5C4-010</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="K11" s="95">
-        <v>44198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16">
-      <c r="A12" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
-        <v>5C4-011</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="K12" s="84"/>
-    </row>
-    <row r="13" spans="1:11" ht="16">
-      <c r="A13" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
-        <v>5C4-012</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="84"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
-        <v>5C4-013</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="84"/>
-    </row>
-    <row r="15" spans="1:11" ht="16">
-      <c r="A15" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
-        <v>5C4-014</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="K15" s="84"/>
-    </row>
-    <row r="16" spans="1:11" ht="16">
-      <c r="A16" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
-        <v>5C4-015</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" s="96">
-        <v>44318</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="84"/>
-    </row>
-    <row r="17" spans="1:11" ht="16">
-      <c r="A17" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="84"/>
-    </row>
-    <row r="18" spans="1:11" ht="16">
-      <c r="A18" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
-        <v>5C4-017</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="F18" s="96">
-        <v>44318</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="84"/>
-    </row>
-    <row r="19" spans="1:11" ht="16">
-      <c r="A19" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="K19" s="84"/>
-    </row>
-    <row r="20" spans="1:11" ht="16">
-      <c r="A20" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
-        <v>5C4-019</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="84"/>
-    </row>
-    <row r="21" spans="1:11" ht="16">
-      <c r="A21" s="21" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
-        <v>5C4-020</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="84"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="F27" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5221,8 +4546,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J21" sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -5234,20 +4559,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="108"/>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
       <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
@@ -5282,7 +4607,7 @@
         <v>166</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16">
@@ -5290,7 +4615,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="19"/>
@@ -5308,7 +4633,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="95" t="s">
         <v>167</v>
       </c>
       <c r="C4" s="30"/>
@@ -5337,7 +4662,7 @@
         <v>5C4-004</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>28</v>
@@ -5364,7 +4689,7 @@
         <v>28</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16">
@@ -5373,7 +4698,7 @@
         <v>5C4-005</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="25"/>
@@ -5391,7 +4716,7 @@
         <v>5C4-006</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>28</v>
@@ -5421,10 +4746,10 @@
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>324</v>
+        <v>171</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>323</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>28</v>
@@ -5451,7 +4776,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16">
@@ -5460,7 +4785,7 @@
         <v>5C4-008</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="27" t="s">
@@ -5487,7 +4812,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="91" t="s">
         <v>167</v>
       </c>
       <c r="C10" s="23"/>
@@ -5516,10 +4841,10 @@
         <v>5C4-010</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>28</v>
@@ -5539,8 +4864,8 @@
       <c r="I11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="99" t="s">
-        <v>412</v>
+      <c r="J11" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="K11" s="84"/>
     </row>
@@ -5550,10 +4875,10 @@
         <v>5C4-011</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>412</v>
+        <v>175</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>28</v>
@@ -5573,8 +4898,8 @@
       <c r="I12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="99" t="s">
-        <v>412</v>
+      <c r="J12" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="K12" s="84"/>
     </row>
@@ -5584,31 +4909,31 @@
         <v>5C4-012</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>178</v>
       </c>
       <c r="K13" s="84"/>
     </row>
@@ -5618,7 +4943,7 @@
         <v>5C4-013</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>28</v>
@@ -5652,10 +4977,10 @@
         <v>5C4-014</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>412</v>
+        <v>179</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>28</v>
@@ -5675,8 +5000,8 @@
       <c r="I15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="99" t="s">
-        <v>412</v>
+      <c r="J15" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="K15" s="84"/>
     </row>
@@ -5685,7 +5010,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="91" t="s">
         <v>167</v>
       </c>
       <c r="C16" s="23"/>
@@ -5710,10 +5035,10 @@
     </row>
     <row r="17" spans="1:11" ht="16">
       <c r="A17" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>360</v>
+        <v>180</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>359</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>28</v>
@@ -5740,7 +5065,7 @@
         <v>28</v>
       </c>
       <c r="K17" s="84" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16">
@@ -5748,7 +5073,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="90" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="23"/>
@@ -5762,10 +5087,10 @@
         <v>28</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -5776,7 +5101,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>28</v>
@@ -5800,7 +5125,7 @@
         <v>28</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="84"/>
     </row>
@@ -5810,7 +5135,7 @@
         <v>5C4-019</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="27" t="s">
@@ -5836,7 +5161,7 @@
         <v>5C4-020</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>28</v>
@@ -5863,7 +5188,7 @@
         <v>28</v>
       </c>
       <c r="K21" s="84" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5877,7 +5202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -5892,20 +5217,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="113" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="110" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="78" t="s">
@@ -5915,13 +5240,13 @@
         <v>165</v>
       </c>
       <c r="C2" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="78" t="s">
         <v>400</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>401</v>
       </c>
       <c r="F2" s="78"/>
       <c r="G2" s="79"/>
@@ -5931,7 +5256,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>167</v>
@@ -5947,16 +5272,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>167</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
@@ -5967,16 +5292,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
@@ -5987,10 +5312,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="73"/>
@@ -6003,14 +5328,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
@@ -6021,16 +5346,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="66" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
@@ -6041,16 +5366,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="80" t="s">
         <v>405</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>406</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
@@ -6061,16 +5386,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
@@ -6081,16 +5406,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
@@ -6101,16 +5426,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
@@ -6121,14 +5446,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -6139,14 +5464,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -6157,16 +5482,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -6177,16 +5502,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="103" t="s">
-        <v>423</v>
+        <v>419</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>420</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -6197,16 +5522,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -6217,13 +5542,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
@@ -6238,7 +5563,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="73"/>
@@ -6251,10 +5576,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="73"/>
@@ -6267,10 +5592,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="73"/>
@@ -6309,7 +5634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6331,32 +5656,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16">
       <c r="A1" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
       <c r="A2" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -6364,25 +5689,25 @@
         <v>112</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
@@ -6390,20 +5715,20 @@
         <v>34</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="A6" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>197</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -6411,10 +5736,10 @@
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -6422,10 +5747,10 @@
     </row>
     <row r="8" spans="1:5" ht="16">
       <c r="A8" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>200</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>201</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -6440,16 +5765,16 @@
     </row>
     <row r="10" spans="1:5" ht="16">
       <c r="A10" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>203</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>204</v>
       </c>
       <c r="E10" s="41"/>
     </row>
@@ -6458,121 +5783,121 @@
         <v>111</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="42" t="s">
         <v>209</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
       <c r="A13" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="40" t="s">
         <v>217</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
       <c r="A15" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>203</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>204</v>
       </c>
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="16">
       <c r="A16" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="E16" s="43" t="s">
         <v>222</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="45" t="s">
         <v>225</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="35"/>
@@ -6583,16 +5908,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="E19" s="50" t="s">
         <v>229</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
@@ -6604,18 +5929,18 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>231</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -6624,74 +5949,74 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -7670,7 +6995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7687,36 +7012,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>245</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="A4" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
@@ -7725,269 +7050,269 @@
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="C25" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>279</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>281</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="C34" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>289</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>292</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
@@ -8949,7 +8274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8966,10 +8291,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -8978,7 +8303,7 @@
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9967,7 +9292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9987,22 +9312,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>302</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10010,19 +9335,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="E2" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>307</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10030,13 +9355,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="58" t="s">
         <v>310</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>311</v>
       </c>
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
@@ -10046,19 +9371,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="57" t="s">
+      <c r="F4" s="57" t="s">
         <v>313</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10066,16 +9391,16 @@
         <v>144</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D5" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F5" s="60"/>
     </row>
@@ -10084,16 +9409,16 @@
         <v>59</v>
       </c>
       <c r="B6" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>316</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>317</v>
       </c>
       <c r="F6" s="60"/>
     </row>
@@ -10102,37 +9427,37 @@
         <v>80</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="57" t="s">
         <v>322</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10140,57 +9465,57 @@
         <v>108</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D9" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>325</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="57" t="s">
         <v>327</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10198,19 +9523,19 @@
         <v>84</v>
       </c>
       <c r="B12" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="57" t="s">
+      <c r="F12" s="57" t="s">
         <v>330</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10218,16 +9543,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>332</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>333</v>
       </c>
       <c r="F13" s="59"/>
     </row>
@@ -10236,19 +9561,19 @@
         <v>55</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10256,37 +9581,37 @@
         <v>87</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C15" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="57" t="s">
         <v>336</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10294,53 +9619,53 @@
         <v>95</v>
       </c>
       <c r="B17" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" s="57" t="s">
         <v>339</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>342</v>
-      </c>
       <c r="D18" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="F18" s="57" t="s">
         <v>322</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>343</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>344</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
@@ -10350,33 +9675,33 @@
         <v>142</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>307</v>
-      </c>
       <c r="F20" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B21" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>320</v>
-      </c>
       <c r="D21" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="60"/>
@@ -10386,19 +9711,19 @@
         <v>73</v>
       </c>
       <c r="B22" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>348</v>
-      </c>
       <c r="F22" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10406,33 +9731,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>349</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B24" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>320</v>
-      </c>
       <c r="D24" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
@@ -10442,39 +9767,39 @@
         <v>31</v>
       </c>
       <c r="B25" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>352</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="57" t="s">
         <v>354</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10482,16 +9807,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F27" s="60"/>
     </row>
@@ -10500,39 +9825,39 @@
         <v>105</v>
       </c>
       <c r="B28" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F28" s="57" t="s">
         <v>356</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="57" t="s">
         <v>358</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10540,39 +9865,39 @@
         <v>69</v>
       </c>
       <c r="B30" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>360</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" s="57" t="s">
         <v>362</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10580,19 +9905,19 @@
         <v>136</v>
       </c>
       <c r="B32" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="57" t="s">
         <v>364</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10600,17 +9925,17 @@
         <v>76</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10618,16 +9943,16 @@
         <v>129</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="E34" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F34" s="60"/>
     </row>
@@ -10636,19 +9961,19 @@
         <v>41</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D35" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="57" t="s">
-        <v>307</v>
-      </c>
       <c r="F35" s="57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10656,33 +9981,33 @@
         <v>102</v>
       </c>
       <c r="B36" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F36" s="57" t="s">
         <v>370</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="61" t="s">
-        <v>320</v>
-      </c>
       <c r="D37" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62"/>
@@ -10692,39 +10017,39 @@
         <v>117</v>
       </c>
       <c r="B38" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F38" s="57" t="s">
         <v>373</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>373</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39" s="57" t="s">
         <v>375</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10732,16 +10057,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D40" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E40" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F40" s="60"/>
     </row>
@@ -10750,19 +10075,19 @@
         <v>26</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10770,19 +10095,19 @@
         <v>66</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E42" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -10790,34 +10115,34 @@
         <v>126</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="E43" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B44" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>320</v>
-      </c>
       <c r="D44" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="F44" s="60"/>
     </row>
@@ -10826,19 +10151,19 @@
         <v>90</v>
       </c>
       <c r="B45" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="57" t="s">
         <v>382</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -10846,19 +10171,19 @@
         <v>132</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="E46" s="57" t="s">
-        <v>307</v>
-      </c>
       <c r="F46" s="57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:6">

--- a/Antonio-Feed/FeedPartsInventory.xlsx
+++ b/Antonio-Feed/FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008E538-FF56-5641-A311-1BADF1E9DD50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF8B87-0CB5-494C-BD87-D136934CB907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76480" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69700" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="441">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>RFCB-029</t>
-  </si>
-  <si>
-    <t>CB-0006</t>
   </si>
   <si>
     <t>DB-020</t>
@@ -1271,9 +1268,6 @@
     <t>Inner Feed / LNAs</t>
   </si>
   <si>
-    <t>(002) 62 / 55</t>
-  </si>
-  <si>
     <t>(---) 83 / 84</t>
   </si>
   <si>
@@ -1283,9 +1277,6 @@
     <t>X=0.05 Y=0.05 Z=0.12</t>
   </si>
   <si>
-    <t>MINEX</t>
-  </si>
-  <si>
     <t>(007) 85 / 99</t>
   </si>
   <si>
@@ -1295,9 +1286,6 @@
     <t>X=0.08 Y=0.04 Z=0.15</t>
   </si>
   <si>
-    <t>5c4-016</t>
-  </si>
-  <si>
     <t>X=0.15 Y=0.05 Z=0.38</t>
   </si>
   <si>
@@ -1344,6 +1332,45 @@
   </si>
   <si>
     <t>X=0.20 Y=0.07 Z=0.20</t>
+  </si>
+  <si>
+    <t>X=0.18 Y=0.05 Z=0.20</t>
+  </si>
+  <si>
+    <t>X=0.25 Y=0.05 Z=0.28</t>
+  </si>
+  <si>
+    <t>(011) 57 / 59</t>
+  </si>
+  <si>
+    <t>X-Y switched</t>
+  </si>
+  <si>
+    <t>X-bottom Y-top</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>(014) 60 / 64</t>
+  </si>
+  <si>
+    <t>(002) 43 / 44</t>
+  </si>
+  <si>
+    <t>(---) 75 / 82</t>
+  </si>
+  <si>
+    <t>CB-0022</t>
+  </si>
+  <si>
+    <t>5c4-014</t>
+  </si>
+  <si>
+    <t>(008) 15 / 23</t>
+  </si>
+  <si>
+    <t>Feed Lab (2M)</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1522,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,12 +1591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1578,12 +1599,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1600,7 +1615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
@@ -1808,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1961,20 +1976,15 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2000,7 +2010,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2220,7 +2231,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2244,25 +2255,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -2397,9 +2408,9 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="H6" s="81"/>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
@@ -2422,9 +2433,9 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="9"/>
       <c r="H7" s="81"/>
       <c r="I7" s="81"/>
@@ -2590,20 +2601,20 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
@@ -2622,20 +2633,20 @@
         <v>2B</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
@@ -2654,10 +2665,10 @@
         <v>2C</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2679,10 +2690,10 @@
         <v>2D</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2704,19 +2715,19 @@
         <v>2E</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
@@ -2735,10 +2746,10 @@
         <v>2F</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2760,10 +2771,10 @@
         <v>2G</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2786,19 +2797,19 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
@@ -2817,14 +2828,18 @@
         <v>2J</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="110" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="95"/>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
@@ -2842,14 +2857,14 @@
         <v>2K</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
@@ -2867,14 +2882,14 @@
         <v>2L</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
@@ -2892,14 +2907,14 @@
         <v>2M</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="9"/>
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
@@ -2918,20 +2933,20 @@
         <v>3C</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D25" s="8" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="H25" s="81"/>
       <c r="I25" s="81"/>
@@ -2950,14 +2965,14 @@
         <v>3D</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="9"/>
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
@@ -2976,14 +2991,14 @@
         <v>3E</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="100"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="97"/>
       <c r="H27" s="81"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
@@ -3097,10 +3112,10 @@
         <v>3J</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3122,19 +3137,19 @@
         <v>3L</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H32" s="81"/>
       <c r="I32" s="81"/>
@@ -3153,10 +3168,10 @@
         <v>4E</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3179,10 +3194,10 @@
         <v>4F</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3205,19 +3220,19 @@
         <v>4G</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="H35" s="81"/>
       <c r="I35" s="81"/>
@@ -3236,10 +3251,10 @@
         <v>4H</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3262,20 +3277,20 @@
         <v>4J</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D37" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37" s="81"/>
       <c r="I37" s="81"/>
@@ -3294,10 +3309,10 @@
         <v>4K</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3319,10 +3334,10 @@
         <v>4L</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3344,10 +3359,10 @@
         <v>5B</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="3"/>
@@ -3369,19 +3384,19 @@
         <v>5C</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H41" s="81"/>
       <c r="I41" s="81"/>
@@ -3400,10 +3415,10 @@
         <v>5E</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3425,10 +3440,10 @@
         <v>5G</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3450,10 +3465,10 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3481,33 +3496,33 @@
     <row r="46" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:17" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -3516,70 +3531,70 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
+      <c r="A59" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="101" t="s">
+      <c r="A61" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="99"/>
+      <c r="C61" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="101" t="s">
+      <c r="B62" s="99"/>
+      <c r="C62" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4544,10 +4559,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J21" sqref="A1:J21"/>
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4556,31 +4571,33 @@
     <col min="3" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1">
+      <c r="A2" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>9</v>
@@ -4604,19 +4621,22 @@
         <v>15</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16">
+        <v>405</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>167</v>
+      <c r="B3" s="91" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="84"/>
@@ -4624,17 +4644,22 @@
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
       <c r="H3" s="84"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>167</v>
+      <c r="B4" s="93" t="s">
+        <v>166</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="27" t="s">
@@ -4652,17 +4677,22 @@
       <c r="H4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="K4" s="84"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
+      <c r="L4" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>28</v>
@@ -4689,16 +4719,19 @@
         <v>28</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16">
+        <v>435</v>
+      </c>
+      <c r="L5" s="84" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="25"/>
@@ -4709,47 +4742,51 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="84"/>
-    </row>
-    <row r="7" spans="1:11" ht="16">
+      <c r="L6" s="84"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="L7" s="84"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="84"/>
-    </row>
-    <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>323</v>
+      <c r="B8" s="92" t="s">
+        <v>322</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>28</v>
@@ -4776,18 +4813,21 @@
         <v>28</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16">
+        <v>414</v>
+      </c>
+      <c r="L8" s="84"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="84"/>
+      <c r="B9" s="111" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
@@ -4803,17 +4843,26 @@
       <c r="H9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="10" spans="1:11" ht="16">
+      <c r="I9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="L9" s="84" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>167</v>
+      <c r="B10" s="90" t="s">
+        <v>166</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="27" t="s">
@@ -4831,21 +4880,24 @@
       <c r="H10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="K10" s="84"/>
-    </row>
-    <row r="11" spans="1:11" ht="16">
+      <c r="L10" s="84"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>411</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C11" s="84"/>
       <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
@@ -4861,24 +4913,25 @@
       <c r="H11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="92" t="s">
-        <v>411</v>
+      <c r="I11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="K11" s="84"/>
-    </row>
-    <row r="12" spans="1:11" ht="16">
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>411</v>
+      <c r="B12" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>28</v>
@@ -4898,52 +4951,58 @@
       <c r="I12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="K12" s="84"/>
-    </row>
-    <row r="13" spans="1:11" ht="16">
+      <c r="J12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="84" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>177</v>
-      </c>
       <c r="K13" s="84"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>28</v>
@@ -4970,17 +5029,18 @@
         <v>28</v>
       </c>
       <c r="K14" s="84"/>
-    </row>
-    <row r="15" spans="1:11" ht="16">
+      <c r="L14" s="84"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>411</v>
+      <c r="B15" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>28</v>
@@ -5000,18 +5060,23 @@
       <c r="I15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="K15" s="84"/>
-    </row>
-    <row r="16" spans="1:11" ht="16">
+      <c r="J15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="L15" s="84" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>167</v>
+      <c r="B16" s="90" t="s">
+        <v>166</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="27" t="s">
@@ -5029,16 +5094,21 @@
       <c r="H16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="K16" s="84"/>
-    </row>
-    <row r="17" spans="1:11" ht="16">
+      <c r="L16" s="84"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="113" t="s">
-        <v>359</v>
+        <v>179</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>166</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>28</v>
@@ -5065,16 +5135,17 @@
         <v>28</v>
       </c>
       <c r="K17" s="84" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16">
+        <v>409</v>
+      </c>
+      <c r="L17" s="84"/>
+    </row>
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="27" t="s">
@@ -5086,22 +5157,27 @@
       <c r="F18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>168</v>
+      <c r="G18" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="I18" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="K18" s="84"/>
-    </row>
-    <row r="19" spans="1:11" ht="16">
+      <c r="L18" s="84"/>
+    </row>
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>28</v>
@@ -5125,17 +5201,18 @@
         <v>28</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K19" s="84"/>
-    </row>
-    <row r="20" spans="1:11" ht="16">
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="27" t="s">
@@ -5154,14 +5231,15 @@
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="84"/>
-    </row>
-    <row r="21" spans="1:11" ht="16">
+      <c r="L20" s="84"/>
+    </row>
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="21" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>28</v>
@@ -5188,8 +5266,9 @@
         <v>28</v>
       </c>
       <c r="K21" s="84" t="s">
-        <v>408</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="L21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5207,7 +5286,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5217,36 +5296,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="110" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="110" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="111"/>
+      <c r="A1" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="78" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="78" t="s">
         <v>399</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>400</v>
       </c>
       <c r="F2" s="78"/>
       <c r="G2" s="79"/>
@@ -5256,10 +5335,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="73"/>
@@ -5272,16 +5351,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
@@ -5292,16 +5371,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
@@ -5312,10 +5391,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="73"/>
@@ -5328,14 +5407,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
@@ -5346,16 +5425,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
@@ -5366,16 +5445,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="80" t="s">
         <v>404</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>405</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
@@ -5386,16 +5465,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
@@ -5406,16 +5485,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
@@ -5426,16 +5505,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
@@ -5446,14 +5525,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -5464,14 +5543,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -5482,16 +5561,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -5502,16 +5581,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>420</v>
+        <v>415</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>416</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -5522,16 +5601,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -5542,15 +5621,17 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>419</v>
-      </c>
-      <c r="D18" s="73"/>
+        <v>429</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>428</v>
+      </c>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
@@ -5560,10 +5641,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="73"/>
@@ -5576,10 +5657,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="73"/>
@@ -5592,10 +5673,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="73"/>
@@ -5656,58 +5737,58 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16">
       <c r="A1" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
       <c r="A2" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
@@ -5715,20 +5796,20 @@
         <v>34</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="A6" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>196</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -5736,10 +5817,10 @@
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>197</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>198</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -5747,10 +5828,10 @@
     </row>
     <row r="8" spans="1:5" ht="16">
       <c r="A8" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>200</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -5765,139 +5846,139 @@
     </row>
     <row r="10" spans="1:5" ht="16">
       <c r="A10" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>203</v>
       </c>
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="16">
       <c r="A11" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="42" t="s">
         <v>205</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="42" t="s">
         <v>208</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
       <c r="A13" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
       <c r="A15" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>203</v>
       </c>
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="16">
       <c r="A16" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="E16" s="43" t="s">
         <v>221</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="45" t="s">
         <v>224</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="35"/>
@@ -5905,19 +5986,19 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="E19" s="50" t="s">
         <v>228</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
@@ -5929,18 +6010,18 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>230</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -5949,74 +6030,74 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -7012,36 +7093,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>244</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="A4" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
@@ -7050,269 +7131,269 @@
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="C25" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>278</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>280</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="C34" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>288</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>291</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
@@ -8291,10 +8372,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -8303,7 +8384,7 @@
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9312,22 +9393,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>301</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9335,207 +9416,207 @@
         <v>23</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="E2" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="58" t="s">
         <v>309</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>310</v>
       </c>
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" s="57" t="s">
+      <c r="F4" s="57" t="s">
         <v>312</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>316</v>
       </c>
       <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="57" t="s">
         <v>321</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>324</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="57" t="s">
         <v>326</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="57" t="s">
+      <c r="F12" s="57" t="s">
         <v>329</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9543,187 +9624,187 @@
         <v>19</v>
       </c>
       <c r="B13" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>331</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>332</v>
       </c>
       <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C15" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="57" t="s">
         <v>335</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="57" t="s">
         <v>338</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>341</v>
-      </c>
       <c r="D18" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="F18" s="57" t="s">
         <v>321</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>342</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>343</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>306</v>
-      </c>
       <c r="F20" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B21" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>319</v>
-      </c>
       <c r="D21" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>347</v>
-      </c>
       <c r="F22" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9731,33 +9812,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>348</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>319</v>
-      </c>
       <c r="D24" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
@@ -9767,39 +9848,39 @@
         <v>31</v>
       </c>
       <c r="B25" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>351</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" s="57" t="s">
         <v>353</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9807,152 +9888,152 @@
         <v>51</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="57" t="s">
         <v>355</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="57" t="s">
         <v>357</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>359</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" s="57" t="s">
         <v>361</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="57" t="s">
         <v>363</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="E34" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F34" s="60"/>
     </row>
@@ -9961,95 +10042,95 @@
         <v>41</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D35" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="57" t="s">
-        <v>306</v>
-      </c>
       <c r="F35" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="57" t="s">
         <v>369</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="61" t="s">
-        <v>319</v>
-      </c>
       <c r="D37" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" s="57" t="s">
         <v>372</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>372</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="57" t="s">
         <v>374</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10057,16 +10138,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D40" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F40" s="60"/>
     </row>
@@ -10075,115 +10156,115 @@
         <v>26</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E42" s="57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="E43" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B44" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>319</v>
-      </c>
       <c r="D44" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="57" t="s">
         <v>305</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>306</v>
       </c>
       <c r="F44" s="60"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="57" t="s">
         <v>381</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="E46" s="57" t="s">
-        <v>306</v>
-      </c>
       <c r="F46" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:6">
